--- a/GEDCOM_JAVA/Team04Report 2.xlsx
+++ b/GEDCOM_JAVA/Team04Report 2.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId4"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId5"/>
-    <sheet name="Stories" sheetId="3" r:id="rId6"/>
-    <sheet name="Tests" sheetId="4" r:id="rId7"/>
-    <sheet name="Burndown" sheetId="5" r:id="rId8"/>
-    <sheet name="Sprint1" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint2" sheetId="7" r:id="rId10"/>
-    <sheet name="Sprint3" sheetId="8" r:id="rId11"/>
-    <sheet name="Sprint4" sheetId="9" r:id="rId12"/>
-    <sheet name="Sprint5" sheetId="10" r:id="rId13"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint5" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="227">
   <si>
     <t>Initials</t>
   </si>
@@ -49,10 +51,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>hchaturv@stevens.edu</t>
     </r>
@@ -72,10 +75,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>sgrozny@stevens.edu</t>
     </r>
@@ -95,10 +99,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>lzhang40@stevens.edu</t>
     </r>
@@ -218,437 +223,525 @@
     <t>Individual records don't match family recored</t>
   </si>
   <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>Two Identical Children in a family</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>No marriage date in a family</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Moms give birth</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Parents are older</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Be Alive First</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Not always 9 months</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>Dual Marriage</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Mom is under 5 years old</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>Sibling Incest</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Dual Role</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Polygamy</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Age is over 130</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Only 1 set of parents or is it</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>We aren't seahorses</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>NJ Pre 2013</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Third is more legal</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Teddy's Home</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Family Records should match individaul records</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Gender on parent</t>
+  </si>
+  <si>
+    <t>Make sure the gender on parent is correct</t>
+  </si>
+  <si>
+    <t>AT01</t>
+  </si>
+  <si>
+    <t>Death before marriage</t>
+  </si>
+  <si>
+    <t>Make sure the Marriage date is before death</t>
+  </si>
+  <si>
+    <t>AT02</t>
+  </si>
+  <si>
+    <t>Make sure each and every individual with birth date</t>
+  </si>
+  <si>
+    <t>AT03</t>
+  </si>
+  <si>
+    <t>Make sure a family contains less than 15 kids</t>
+  </si>
+  <si>
+    <t>AT04</t>
+  </si>
+  <si>
+    <t>Two Identical Indvidauls</t>
+  </si>
+  <si>
+    <t>Make sure two people with the same name and birthdate don't appear</t>
+  </si>
+  <si>
+    <t>AT05</t>
+  </si>
+  <si>
+    <t>about death problem</t>
+  </si>
+  <si>
+    <t>AT06</t>
+  </si>
+  <si>
+    <t>about divorce date problem</t>
+  </si>
+  <si>
+    <t>AT07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An individual is an ancestral child of self, </t>
+  </si>
+  <si>
+    <t>AT08</t>
+  </si>
+  <si>
+    <t>Check to see that an individual isn’t both a spouse and a child</t>
+  </si>
+  <si>
+    <t>AT09</t>
+  </si>
+  <si>
+    <t>Make sure all info for individuals matches family records</t>
+  </si>
+  <si>
+    <t>AT10</t>
+  </si>
+  <si>
+    <t>Two children can't share a name and birthdate</t>
+  </si>
+  <si>
+    <t>Marriage date in a family doesn't exist</t>
+  </si>
+  <si>
+    <t>BirthDate of children can't be after deathdate of mother</t>
+  </si>
+  <si>
+    <t>Birthdate of children can't be before birthdate of parents</t>
+  </si>
+  <si>
+    <t>Deathdate of indvidual can't be before birthdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthdate of Childrenin reasonable parameters with same mother , 90 -145 days are the apprixamte records for longest twin gap and earliest birth </t>
+  </si>
+  <si>
+    <t>Error if: Two marraiage events without a divorce or death occurance</t>
+  </si>
+  <si>
+    <t>Mom is under 5 years old (record)</t>
+  </si>
+  <si>
+    <t>Siblings can't be married if biological siblings</t>
+  </si>
+  <si>
+    <t>Indvidual can't be both a spouse and a child to same family</t>
+  </si>
+  <si>
+    <t>Individual is a spouse to multipile families without a Divore or Deathdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only husband but no wife </t>
+  </si>
+  <si>
+    <t>A family can't have more than 1 of each spouses</t>
+  </si>
+  <si>
+    <t>first cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>aunts and uncles should not marry their nephews or nieces</t>
+  </si>
+  <si>
+    <t>AT ID</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>AT 01</t>
+  </si>
+  <si>
+    <t>GED file, Individual Id,Bdays,Ddays</t>
+  </si>
+  <si>
+    <t>judge whether death before birth</t>
+  </si>
+  <si>
+    <t>AT 02</t>
+  </si>
+  <si>
+    <t>AT 03</t>
+  </si>
+  <si>
+    <t>Missing birthdate</t>
+  </si>
+  <si>
+    <t>GED file, Individual Id,Bdays</t>
+  </si>
+  <si>
+    <t>All individuals with birthdates</t>
+  </si>
+  <si>
+    <t>AT 04</t>
+  </si>
+  <si>
+    <t>More than 15 Kids</t>
+  </si>
+  <si>
+    <t>GED File, Fam ID @F6@ has 16 kids.</t>
+  </si>
+  <si>
+    <t>Only Fam ID @F6@ is alerted and lists all childrens names</t>
+  </si>
+  <si>
+    <t>Done/Worked/Passed</t>
+  </si>
+  <si>
+    <t>AT 05</t>
+  </si>
+  <si>
+    <t>Two Idenitcal Indviduals</t>
+  </si>
+  <si>
+    <t>Copied the information from indvidual 2 and 12 into indvidual 16 and 17</t>
+  </si>
+  <si>
+    <t>Alerts to each set of copied indviduals and prints their information</t>
+  </si>
+  <si>
+    <t>AT 06</t>
+  </si>
+  <si>
+    <t>AT 07</t>
+  </si>
+  <si>
+    <t>AT 08</t>
+  </si>
+  <si>
+    <t>GED File, Where an individaul is a child of its children</t>
+  </si>
+  <si>
+    <t>Alert if any node(individual) is revisited. So Individual A is looped, so it will alert on A, B, and D because B and D's children are A</t>
+  </si>
+  <si>
+    <t>AT 09</t>
+  </si>
+  <si>
+    <t>GED File, FAMS and FAMC match on an indvidual</t>
+  </si>
+  <si>
+    <t>Individual @SG-2-3-BCP@ will be spotted</t>
+  </si>
+  <si>
+    <t>AT 10</t>
+  </si>
+  <si>
+    <t>GED File, a FAMS or FAMC call to a family where that family doesn't have a matching tag</t>
+  </si>
+  <si>
+    <t>AT 11</t>
+  </si>
+  <si>
+    <t>Missing Marriage date for Family</t>
+  </si>
+  <si>
+    <t>GED file, family structure and total number of families</t>
+  </si>
+  <si>
+    <t>All families should have maggiage date</t>
+  </si>
+  <si>
+    <t>AT 12</t>
+  </si>
+  <si>
+    <t>checking for Same name and birth date for family</t>
+  </si>
+  <si>
+    <t>GED file, Family and Individual Structures</t>
+  </si>
+  <si>
+    <t>No children in family should have sama name and birth date</t>
+  </si>
+  <si>
+    <t>AT 13</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>AT01, AT02</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>gender is wrong</t>
+  </si>
+  <si>
+    <t>More Than 15 Kids</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Meet twice a week</t>
+  </si>
+  <si>
+    <t>Text everyone when you discover a problem</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Forgetting to commit changes to GitHub</t>
+  </si>
+  <si>
+    <t>Missing Marriage date</t>
+  </si>
+  <si>
+    <t>AT11</t>
+  </si>
+  <si>
+    <t>Two identical children in family</t>
+  </si>
+  <si>
+    <t>AT12</t>
+  </si>
+  <si>
+    <t>Individuals that have records that don't match to proper family. Will include: Individual record exists but family equivalent is null, Individual record exists but family record doesn't match, individual record exists but family to which it points doesn't</t>
+  </si>
+  <si>
+    <t>Individual records should match family recored</t>
+  </si>
+  <si>
+    <t>AT28</t>
+  </si>
+  <si>
+    <t>Most productive sprint</t>
+  </si>
+  <si>
+    <t>Set weekly deadlines</t>
+  </si>
+  <si>
+    <t>Not communicating more whena  problem appears</t>
+  </si>
+  <si>
+    <t>AT 28</t>
+  </si>
+  <si>
+    <t>Families that have records that don't match to proper individual records. Will include: WIFE or HUSB tags point to individuals whose Spouse tag doesn't match family id, or Spouse tag is null, or individual doesn't exsist</t>
+  </si>
+  <si>
+    <t>AT24</t>
+  </si>
+  <si>
+    <t>AT25</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Will probably take much longer as arcitecture will have to be modified</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Individual records don't match family record</t>
+  </si>
+  <si>
+    <t>mom gives birth</t>
+  </si>
+  <si>
+    <t>GED file, family structure and individual structure.</t>
+  </si>
+  <si>
+    <t>Mom with death date before birth date of kid@HC-3-1-F1@</t>
+  </si>
+  <si>
+    <t>AT 14</t>
+  </si>
+  <si>
+    <t>Mom with birth date later birth date of kid@HC-3-1-F3@</t>
+  </si>
+  <si>
+    <t>Mom gives birth</t>
+  </si>
+  <si>
+    <t>parents are older</t>
+  </si>
+  <si>
+    <t>AT 18</t>
+  </si>
+  <si>
     <t>In progress</t>
   </si>
   <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>Two Identical Children in a family</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>No marriage date in a family</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Moms give birth</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Parents are older</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Be Alive First</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Not always 9 months</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>Dual Marriage</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Mom is under 5 years old</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>Sibling Incest</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Dual Role</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Polygamy</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Age is over 130</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Only 1 set of parents or is it</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>We aren't seahorses</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>NJ Pre 2013</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Third is more legal</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Teddy's Home</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Family Records should match individaul records</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Gender on parent</t>
-  </si>
-  <si>
-    <t>Make sure the gender on parent is correct</t>
-  </si>
-  <si>
-    <t>AT01</t>
-  </si>
-  <si>
-    <t>Death before marriage</t>
-  </si>
-  <si>
-    <t>Make sure the Marriage date is before death</t>
-  </si>
-  <si>
-    <t>AT02</t>
-  </si>
-  <si>
-    <t>Make sure each and every individual with birth date</t>
-  </si>
-  <si>
-    <t>AT03</t>
-  </si>
-  <si>
-    <t>Make sure a family contains less than 15 kids</t>
-  </si>
-  <si>
-    <t>AT04</t>
-  </si>
-  <si>
-    <t>Two Identical Indvidauls</t>
-  </si>
-  <si>
-    <t>Make sure two people with the same name and birthdate don't appear</t>
-  </si>
-  <si>
-    <t>AT05</t>
-  </si>
-  <si>
-    <t>about death problem</t>
-  </si>
-  <si>
-    <t>AT06</t>
-  </si>
-  <si>
-    <t>about divorce date problem</t>
-  </si>
-  <si>
-    <t>AT07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An individual is an ancestral child of self, </t>
-  </si>
-  <si>
-    <t>AT08</t>
-  </si>
-  <si>
-    <t>Check to see that an individual isn’t both a spouse and a child</t>
-  </si>
-  <si>
-    <t>AT09</t>
-  </si>
-  <si>
-    <t>Make sure all info for individuals matches family records</t>
-  </si>
-  <si>
-    <t>AT10</t>
-  </si>
-  <si>
-    <t>Two children can't share a name and birthdate</t>
-  </si>
-  <si>
-    <t>Marriage date in a family doesn't exist</t>
-  </si>
-  <si>
-    <t>BirthDate of children can't be after deathdate of mother</t>
-  </si>
-  <si>
-    <t>Birthdate of children can't be before birthdate of parents</t>
-  </si>
-  <si>
-    <t>Deathdate of indvidual can't be before birthdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birthdate of Childrenin reasonable parameters with same mother , 90 -145 days are the apprixamte records for longest twin gap and earliest birth </t>
-  </si>
-  <si>
-    <t>Error if: Two marraiage events without a divorce or death occurance</t>
-  </si>
-  <si>
-    <t>Mom is under 5 years old (record)</t>
-  </si>
-  <si>
-    <t>Siblings can't be married if biological siblings</t>
-  </si>
-  <si>
-    <t>Indvidual can't be both a spouse and a child to same family</t>
-  </si>
-  <si>
-    <t>Individual is a spouse to multipile families without a Divore or Deathdate</t>
-  </si>
-  <si>
-    <t>An individual can't be a child to two families, unless a remarriage occred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only husband but no wife </t>
-  </si>
-  <si>
-    <t>A family can't have more than 1 of each spouses</t>
-  </si>
-  <si>
-    <t>first cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>aunts and uncles should not marry their nephews or nieces</t>
-  </si>
-  <si>
-    <t>AT ID</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
-    <t>AT 01</t>
-  </si>
-  <si>
-    <t>GED file, Individual Id,Bdays,Ddays</t>
-  </si>
-  <si>
-    <t>judge whether death before birth</t>
-  </si>
-  <si>
-    <t>AT 02</t>
-  </si>
-  <si>
-    <t>AT 03</t>
-  </si>
-  <si>
-    <t>Missing birthdate</t>
-  </si>
-  <si>
-    <t>GED file, Individual Id,Bdays</t>
-  </si>
-  <si>
-    <t>All individuals with birthdates</t>
-  </si>
-  <si>
-    <t>AT 04</t>
-  </si>
-  <si>
-    <t>More than 15 Kids</t>
-  </si>
-  <si>
-    <t>GED File, Fam ID @F6@ has 16 kids.</t>
-  </si>
-  <si>
-    <t>Only Fam ID @F6@ is alerted and lists all childrens names</t>
-  </si>
-  <si>
-    <t>Done/Worked/Passed</t>
-  </si>
-  <si>
-    <t>AT 05</t>
-  </si>
-  <si>
-    <t>Two Idenitcal Indviduals</t>
-  </si>
-  <si>
-    <t>Copied the information from indvidual 2 and 12 into indvidual 16 and 17</t>
-  </si>
-  <si>
-    <t>Alerts to each set of copied indviduals and prints their information</t>
-  </si>
-  <si>
-    <t>AT 06</t>
-  </si>
-  <si>
-    <t>AT 07</t>
-  </si>
-  <si>
-    <t>AT 08</t>
-  </si>
-  <si>
-    <t>GED File, Where an individaul is a child of its children</t>
-  </si>
-  <si>
-    <t>Alert if any node(individual) is revisited. So Individual A is looped, so it will alert on A, B, and D because B and D's children are A</t>
-  </si>
-  <si>
-    <t>AT 09</t>
-  </si>
-  <si>
-    <t>GED File, FAMS and FAMC match on an indvidual</t>
-  </si>
-  <si>
-    <t>Individual @SG-2-3-BCP@ will be spotted</t>
-  </si>
-  <si>
-    <t>AT 10</t>
-  </si>
-  <si>
-    <t>GED File, a FAMS or FAMC call to a family where that family doesn't have a matching tag</t>
-  </si>
-  <si>
-    <t>Individuals @SG-2-3-RDM@ and @SG-2-3-BCP@ have records that don't match to proper family</t>
-  </si>
-  <si>
-    <t>In prgoress, Spots FAMC problems but bugging on a FAMS one</t>
-  </si>
-  <si>
-    <t>AT 11</t>
-  </si>
-  <si>
-    <t>Missing Marriage date for Family</t>
-  </si>
-  <si>
-    <t>GED file, family structure and total number of families</t>
-  </si>
-  <si>
-    <t>All families should have maggiage date</t>
-  </si>
-  <si>
-    <t>AT 12</t>
-  </si>
-  <si>
-    <t>checking for Same name and birth date for family</t>
-  </si>
-  <si>
-    <t>GED file, Family and Individual Structures</t>
-  </si>
-  <si>
-    <t>No children in family should have sama name and birth date</t>
-  </si>
-  <si>
-    <t>AT 13</t>
-  </si>
-  <si/>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>AT01, AT02</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>LZ</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>gender is wrong</t>
-  </si>
-  <si>
-    <t>More Than 15 Kids</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Meet twice a week</t>
-  </si>
-  <si>
-    <t>Text everyone when you discover a problem</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Forgetting to commit changes to GitHub</t>
-  </si>
-  <si>
-    <t>Missing Marriage date</t>
-  </si>
-  <si>
-    <t>AT11</t>
-  </si>
-  <si>
-    <t>Two identical children in family</t>
-  </si>
-  <si>
-    <t>AT12</t>
+    <t>AT 22</t>
+  </si>
+  <si>
+    <t>AT18</t>
+  </si>
+  <si>
+    <t>AT22</t>
+  </si>
+  <si>
+    <t>GEDCOM file checks every wifes birtday vs all of her kids if the agedifference is 5 years or less it’s a problem</t>
+  </si>
+  <si>
+    <t>Return all mothers whose age was 5 or less at birthtime(regardless of current age)</t>
+  </si>
+  <si>
+    <t>All individuals who are over 130 from todays date</t>
+  </si>
+  <si>
+    <t>AT16</t>
+  </si>
+  <si>
+    <t>An individual can't be a child to two families, unless a remarriage occured</t>
+  </si>
+  <si>
+    <t>AT19</t>
+  </si>
+  <si>
+    <t>AT15</t>
+  </si>
+  <si>
+    <t>Needs to finish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -657,49 +750,45 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="2">
@@ -964,197 +1053,281 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="75">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff888888"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ff4a7ebb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF888888"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1163,23 +1336,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0976262"/>
-          <c:y val="0.0597086"/>
-          <c:w val="0.898521"/>
-          <c:h val="0.831141"/>
+          <c:x val="9.7626199999999996E-2"/>
+          <c:y val="5.9708600000000001E-2"/>
+          <c:w val="0.89852100000000001"/>
+          <c:h val="0.83114100000000002"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1192,9 +1366,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
             <a:ln w="28575" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1221,41 +1392,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Helvetica"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="6"/>
@@ -1274,45 +1410,46 @@
               <c:pt idx="4">
                 <c:v>5/5</c:v>
               </c:pt>
-              <c:pt idx="5">
-                <c:v/>
-              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown'!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.000000</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.000000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.000000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.000000</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80159104"/>
+        <c:axId val="80187392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="80159104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1473,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1344,16 +1481,18 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="80187392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="80187392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1527,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1396,9 +1535,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="80159104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -1417,6 +1557,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1431,11 +1572,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1449,18 +1595,18 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>8904</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="889544" y="1485557"/>
-        <a:ext cx="4450309" cy="2339698"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1470,7 +1616,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1662,7 +1808,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1671,7 +1817,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1680,7 +1826,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1689,7 +1835,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1698,7 +1844,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1707,7 +1853,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1819,8 +1965,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1828,14 +1974,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1854,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1862,7 +2008,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1890,7 +2036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,7 +2062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1942,7 +2088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1968,7 +2114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1994,7 +2140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2020,7 +2166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2046,7 +2192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2072,7 +2218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2098,7 +2244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2111,9 +2257,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2129,7 +2281,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2148,7 +2300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2174,7 +2326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2200,7 +2352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2226,7 +2378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2252,7 +2404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2278,7 +2430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2304,7 +2456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2330,7 +2482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2356,7 +2508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2382,7 +2534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2395,9 +2547,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2410,7 +2568,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2429,7 +2587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2459,7 +2617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2485,7 +2643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2511,7 +2669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2537,7 +2695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2563,7 +2721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2589,7 +2747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2615,7 +2773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2641,7 +2799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2667,7 +2825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2680,52 +2838,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.09765625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2733,61 +2896,61 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2795,7 +2958,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2803,7 +2966,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2811,19 +2974,19 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2833,12 +2996,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2846,59 +3009,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="50" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="50" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="50" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2910,7 +3063,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2922,7 +3075,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2934,7 +3087,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2946,7 +3099,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2958,7 +3111,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2970,7 +3123,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2982,7 +3135,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2994,7 +3147,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3008,7 +3161,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3016,68 +3169,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="8" customWidth="1"/>
     <col min="5" max="5" width="5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.9375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.30469" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.48438" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.8984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.296875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.8984375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="8" customWidth="1"/>
-    <col min="18" max="256" width="8.125" style="8" customWidth="1"/>
+    <col min="13" max="256" width="8.09765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s" s="9">
+      <c r="K1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s" s="9">
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="10"/>
@@ -3086,21 +3236,21 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
+    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="5">
@@ -3125,21 +3275,21 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="5">
@@ -3164,21 +3314,21 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:17" ht="16.5" customHeight="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="5">
@@ -3203,21 +3353,21 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="5">
@@ -3242,21 +3392,21 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:17" ht="16.5" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="6">
+      <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="5">
@@ -3281,21 +3431,21 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="17"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s" s="6">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" t="s" s="6">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="6">
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="5">
@@ -3320,21 +3470,21 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="6">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" t="s" s="6">
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s" s="6">
+      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="5">
@@ -3359,21 +3509,21 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s" s="6">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" t="s" s="6">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="5">
@@ -3383,7 +3533,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="5">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="J9" s="5">
         <v>120</v>
@@ -3398,21 +3548,21 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s" s="6">
+      <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" t="s" s="6">
+      <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="5">
@@ -3437,22 +3587,22 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" ht="17.1" customHeight="1">
+    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="6">
-        <v>56</v>
+      <c r="C11" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s" s="6">
-        <v>57</v>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="5">
         <v>50</v>
@@ -3464,10 +3614,10 @@
         <v>90</v>
       </c>
       <c r="J11" s="5">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s" s="6">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="K11" s="13">
+        <v>40639</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="18"/>
@@ -3476,21 +3626,21 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" ht="17.1" customHeight="1">
+    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s" s="6">
-        <v>59</v>
-      </c>
       <c r="D12" s="5"/>
-      <c r="E12" t="s" s="6">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="5">
@@ -3515,21 +3665,21 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:17" ht="16.5" customHeight="1">
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s" s="6">
-        <v>61</v>
-      </c>
       <c r="D13" s="5"/>
-      <c r="E13" t="s" s="6">
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s" s="6">
+      <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="5">
@@ -3554,22 +3704,38 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s" s="6">
+    <row r="14" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="6">
-        <v>63</v>
-      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="13"/>
+      <c r="E14" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="54">
+        <v>25</v>
+      </c>
+      <c r="H14" s="54">
+        <v>100</v>
+      </c>
+      <c r="I14" s="54">
+        <v>38</v>
+      </c>
+      <c r="J14" s="54">
+        <v>80</v>
+      </c>
+      <c r="K14" s="56">
+        <v>40639</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
@@ -3577,22 +3743,38 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s" s="6">
+    <row r="15" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="6">
-        <v>65</v>
-      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
+      <c r="E15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="54">
+        <v>30</v>
+      </c>
+      <c r="H15" s="54">
+        <v>20</v>
+      </c>
+      <c r="I15" s="54">
+        <v>38</v>
+      </c>
+      <c r="J15" s="54">
+        <v>20</v>
+      </c>
+      <c r="K15" s="56">
+        <v>40639</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
@@ -3600,19 +3782,27 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s" s="6">
+    <row r="16" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s" s="6">
-        <v>67</v>
-      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5">
+        <v>50</v>
+      </c>
+      <c r="H16" s="5">
+        <v>40</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="13"/>
@@ -3623,19 +3813,27 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s" s="6">
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s" s="21">
-        <v>69</v>
-      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>120</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="13"/>
@@ -3646,13 +3844,15 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s" s="6">
+    <row r="18" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>71</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3669,21 +3869,35 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s" s="6">
+    <row r="19" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s" s="6">
-        <v>73</v>
-      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="5">
+        <v>25</v>
+      </c>
+      <c r="H19" s="5">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5">
+        <v>30</v>
+      </c>
+      <c r="J19" s="5">
+        <v>40</v>
+      </c>
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
       <c r="M19" s="18"/>
@@ -3692,19 +3906,27 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s" s="6">
+    <row r="20" spans="1:17" ht="12.95" customHeight="1">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s" s="6">
-        <v>75</v>
-      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5">
+        <v>120</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="13"/>
@@ -3715,13 +3937,13 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" ht="12.95" customHeight="1">
+    <row r="21" spans="1:17" ht="12.95" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" t="s" s="6">
+      <c r="B21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>77</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -3738,13 +3960,13 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" ht="12.95" customHeight="1">
+    <row r="22" spans="1:17" ht="12.95" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" t="s" s="6">
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" t="s" s="6">
-        <v>79</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -3761,21 +3983,35 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" ht="12.95" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" t="s" s="6">
+    <row r="23" spans="1:17" ht="12.95" customHeight="1">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s" s="6">
-        <v>81</v>
-      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="5">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5">
+        <v>30</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5">
+        <v>40</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="5"/>
       <c r="M23" s="15"/>
@@ -3784,13 +4020,13 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" ht="12.95" customHeight="1">
+    <row r="24" spans="1:17" ht="12.95" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" t="s" s="6">
+      <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>83</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -3807,19 +4043,27 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" ht="12.95" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s" s="6">
+    <row r="25" spans="1:17" ht="12.95" customHeight="1">
+      <c r="A25" s="5">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s" s="6">
-        <v>85</v>
-      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5">
+        <v>50</v>
+      </c>
+      <c r="H25" s="5">
+        <v>30</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="13"/>
@@ -3830,19 +4074,27 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" ht="12.95" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s" s="6">
+    <row r="26" spans="1:17" ht="12.95" customHeight="1">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C26" t="s" s="6">
-        <v>87</v>
-      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="5">
+        <v>60</v>
+      </c>
+      <c r="H26" s="5">
+        <v>60</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="13"/>
@@ -3853,13 +4105,13 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="20"/>
     </row>
-    <row r="27" ht="12.95" customHeight="1">
+    <row r="27" spans="1:17" ht="12.95" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" t="s" s="6">
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>89</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3876,13 +4128,13 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20"/>
     </row>
-    <row r="28" ht="12.95" customHeight="1">
+    <row r="28" spans="1:17" ht="12.95" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" t="s" s="6">
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>91</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3899,22 +4151,38 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="20"/>
     </row>
-    <row r="29" ht="12.95" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s" s="6">
+    <row r="29" spans="1:17" ht="12.95" customHeight="1">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s" s="6">
-        <v>93</v>
-      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="13"/>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="5">
+        <v>150</v>
+      </c>
+      <c r="H29" s="5">
+        <v>60</v>
+      </c>
+      <c r="I29" s="5">
+        <v>200</v>
+      </c>
+      <c r="J29" s="5">
+        <v>90</v>
+      </c>
+      <c r="K29" s="13">
+        <v>40639</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
@@ -3922,9 +4190,12 @@
       <c r="P29" s="23"/>
       <c r="Q29" s="24"/>
     </row>
+    <row r="30" spans="1:17" ht="12.95" customHeight="1">
+      <c r="K30" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3932,54 +4203,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="25" customWidth="1"/>
     <col min="2" max="2" width="49.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="48.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="25" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="48.3984375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="25" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="C1" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="26.1" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="6">
+      <c r="C2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s" s="27">
+      <c r="D2" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>97</v>
       </c>
       <c r="E2" s="5">
         <v>40</v>
@@ -3988,18 +4261,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="26.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="D3" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>100</v>
       </c>
       <c r="E3" s="5">
         <v>30</v>
@@ -4008,18 +4281,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="26.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>102</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -4028,18 +4301,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>104</v>
       </c>
       <c r="E5" s="6">
         <v>20</v>
@@ -4048,18 +4321,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="D6" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>107</v>
       </c>
       <c r="E6" s="6">
         <v>20</v>
@@ -4068,18 +4341,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>109</v>
       </c>
       <c r="E7" s="6">
         <v>30</v>
@@ -4088,18 +4361,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>111</v>
       </c>
       <c r="E8" s="6">
         <v>40</v>
@@ -4108,18 +4381,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s" s="6">
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>113</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
@@ -4128,18 +4401,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s" s="6">
+      <c r="C10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>115</v>
       </c>
       <c r="E10" s="5">
         <v>15</v>
@@ -4148,18 +4421,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s" s="6">
+      <c r="C11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>117</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -4168,259 +4441,259 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>118</v>
+      <c r="C12" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>119</v>
+      <c r="C13" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s" s="6">
-        <v>120</v>
+      <c r="C14" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s" s="6">
-        <v>121</v>
+      <c r="C15" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" t="s" s="6">
+    <row r="16" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>122</v>
+      <c r="C16" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="38.25" customHeight="1">
-      <c r="A17" t="s" s="21">
+    <row r="17" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s" s="21">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s" s="27">
-        <v>123</v>
+      <c r="C17" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>124</v>
+      <c r="C18" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" t="s" s="6">
+    <row r="19" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>125</v>
+      <c r="C19" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>126</v>
+      <c r="C20" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="12.95" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>127</v>
+      <c r="C21" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" ht="12.95" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s" s="6">
-        <v>128</v>
+      <c r="C22" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" ht="12.95" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s" s="6">
-        <v>81</v>
+      <c r="C23" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="12.95" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s" s="6">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>129</v>
+      <c r="C24" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" ht="12.95" customHeight="1">
-      <c r="A25" t="s" s="6">
+    <row r="25" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s" s="6">
-        <v>130</v>
+      <c r="C25" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="12.95" customHeight="1">
-      <c r="A26" t="s" s="6">
+    <row r="26" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s" s="6">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>131</v>
+      <c r="C26" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" ht="12.95" customHeight="1">
-      <c r="A27" t="s" s="6">
+    <row r="27" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B27" t="s" s="6">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>132</v>
+      <c r="C27" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" ht="12.95" customHeight="1">
-      <c r="A28" t="s" s="6">
+    <row r="28" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B28" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>133</v>
+      <c r="C28" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" ht="12.95" customHeight="1">
-      <c r="A29" t="s" s="6">
+    <row r="29" spans="1:6" ht="12.95" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B29" t="s" s="6">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s" s="6">
-        <v>93</v>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" ht="12.95" customHeight="1">
+    <row r="30" spans="1:6" ht="12.95" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="28"/>
@@ -4430,7 +4703,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4438,44 +4711,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="A18:E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="31" customWidth="1"/>
     <col min="3" max="3" width="31" style="31" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="45.375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="31" customWidth="1"/>
-    <col min="12" max="256" width="8.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="45.3984375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="31" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="26">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s" s="26">
-        <v>136</v>
-      </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="10"/>
@@ -4484,23 +4754,23 @@
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:256" ht="45" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s" s="32">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="15"/>
@@ -4509,11 +4779,11 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s" s="6">
+    <row r="3" spans="1:256" ht="45" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="5"/>
@@ -4526,23 +4796,23 @@
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:256" ht="45" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s" s="35">
+      <c r="E4" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s" s="36">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s" s="36">
-        <v>144</v>
-      </c>
-      <c r="F4" t="s" s="35">
+      <c r="F4" s="35" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="15"/>
@@ -4551,24 +4821,24 @@
       <c r="J4" s="16"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:256" ht="45" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B5" t="s" s="37">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s" s="38">
+      <c r="E5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s" s="38">
+      <c r="F5" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="E5" t="s" s="38">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s" s="38">
-        <v>149</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="16"/>
@@ -4576,24 +4846,24 @@
       <c r="J5" s="16"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:256" ht="45" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B6" t="s" s="37">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="38">
+      <c r="E6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D6" t="s" s="38">
-        <v>152</v>
-      </c>
-      <c r="E6" t="s" s="38">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s" s="38">
-        <v>149</v>
+      <c r="F6" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="16"/>
@@ -4601,11 +4871,11 @@
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s" s="37">
+    <row r="7" spans="1:256" ht="45" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="40"/>
@@ -4618,11 +4888,11 @@
       <c r="J7" s="16"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s" s="37">
+    <row r="8" spans="1:256" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="41"/>
@@ -4635,23 +4905,23 @@
       <c r="J8" s="16"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" ht="47.25" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B9" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s" s="32">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s" s="32">
-        <v>158</v>
-      </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="15"/>
@@ -4660,23 +4930,23 @@
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:256" ht="25.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s" s="27">
-        <v>160</v>
-      </c>
-      <c r="E10" t="s" s="27">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="15"/>
@@ -4685,24 +4955,24 @@
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s" s="6">
+    <row r="11" spans="1:256" ht="57.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s" s="27">
-        <v>163</v>
-      </c>
-      <c r="E11" t="s" s="27">
-        <v>164</v>
-      </c>
-      <c r="F11" t="s" s="27">
-        <v>165</v>
+      <c r="C11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
@@ -4710,23 +4980,23 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" ht="17.1" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>166</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="D12" t="s" s="27">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="F12" t="s" s="6">
+    <row r="12" spans="1:256" ht="25.5">
+      <c r="A12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="18"/>
@@ -4735,23 +5005,23 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>170</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>171</v>
-      </c>
-      <c r="D13" t="s" s="27">
-        <v>172</v>
-      </c>
-      <c r="E13" t="s" s="27">
-        <v>173</v>
-      </c>
-      <c r="F13" t="s" s="6">
+    <row r="13" spans="1:256" ht="25.5">
+      <c r="A13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="18"/>
@@ -4760,26 +5030,1359 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" ht="17.1" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>174</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
+    <row r="14" spans="1:256" ht="25.5">
+      <c r="A14" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="50"/>
+      <c r="BH14" s="50"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="50"/>
+      <c r="BK14" s="50"/>
+      <c r="BL14" s="50"/>
+      <c r="BM14" s="50"/>
+      <c r="BN14" s="50"/>
+      <c r="BO14" s="50"/>
+      <c r="BP14" s="50"/>
+      <c r="BQ14" s="50"/>
+      <c r="BR14" s="50"/>
+      <c r="BS14" s="50"/>
+      <c r="BT14" s="50"/>
+      <c r="BU14" s="50"/>
+      <c r="BV14" s="50"/>
+      <c r="BW14" s="50"/>
+      <c r="BX14" s="50"/>
+      <c r="BY14" s="50"/>
+      <c r="BZ14" s="50"/>
+      <c r="CA14" s="50"/>
+      <c r="CB14" s="50"/>
+      <c r="CC14" s="50"/>
+      <c r="CD14" s="50"/>
+      <c r="CE14" s="50"/>
+      <c r="CF14" s="50"/>
+      <c r="CG14" s="50"/>
+      <c r="CH14" s="50"/>
+      <c r="CI14" s="50"/>
+      <c r="CJ14" s="50"/>
+      <c r="CK14" s="50"/>
+      <c r="CL14" s="50"/>
+      <c r="CM14" s="50"/>
+      <c r="CN14" s="50"/>
+      <c r="CO14" s="50"/>
+      <c r="CP14" s="50"/>
+      <c r="CQ14" s="50"/>
+      <c r="CR14" s="50"/>
+      <c r="CS14" s="50"/>
+      <c r="CT14" s="50"/>
+      <c r="CU14" s="50"/>
+      <c r="CV14" s="50"/>
+      <c r="CW14" s="50"/>
+      <c r="CX14" s="50"/>
+      <c r="CY14" s="50"/>
+      <c r="CZ14" s="50"/>
+      <c r="DA14" s="50"/>
+      <c r="DB14" s="50"/>
+      <c r="DC14" s="50"/>
+      <c r="DD14" s="50"/>
+      <c r="DE14" s="50"/>
+      <c r="DF14" s="50"/>
+      <c r="DG14" s="50"/>
+      <c r="DH14" s="50"/>
+      <c r="DI14" s="50"/>
+      <c r="DJ14" s="50"/>
+      <c r="DK14" s="50"/>
+      <c r="DL14" s="50"/>
+      <c r="DM14" s="50"/>
+      <c r="DN14" s="50"/>
+      <c r="DO14" s="50"/>
+      <c r="DP14" s="50"/>
+      <c r="DQ14" s="50"/>
+      <c r="DR14" s="50"/>
+      <c r="DS14" s="50"/>
+      <c r="DT14" s="50"/>
+      <c r="DU14" s="50"/>
+      <c r="DV14" s="50"/>
+      <c r="DW14" s="50"/>
+      <c r="DX14" s="50"/>
+      <c r="DY14" s="50"/>
+      <c r="DZ14" s="50"/>
+      <c r="EA14" s="50"/>
+      <c r="EB14" s="50"/>
+      <c r="EC14" s="50"/>
+      <c r="ED14" s="50"/>
+      <c r="EE14" s="50"/>
+      <c r="EF14" s="50"/>
+      <c r="EG14" s="50"/>
+      <c r="EH14" s="50"/>
+      <c r="EI14" s="50"/>
+      <c r="EJ14" s="50"/>
+      <c r="EK14" s="50"/>
+      <c r="EL14" s="50"/>
+      <c r="EM14" s="50"/>
+      <c r="EN14" s="50"/>
+      <c r="EO14" s="50"/>
+      <c r="EP14" s="50"/>
+      <c r="EQ14" s="50"/>
+      <c r="ER14" s="50"/>
+      <c r="ES14" s="50"/>
+      <c r="ET14" s="50"/>
+      <c r="EU14" s="50"/>
+      <c r="EV14" s="50"/>
+      <c r="EW14" s="50"/>
+      <c r="EX14" s="50"/>
+      <c r="EY14" s="50"/>
+      <c r="EZ14" s="50"/>
+      <c r="FA14" s="50"/>
+      <c r="FB14" s="50"/>
+      <c r="FC14" s="50"/>
+      <c r="FD14" s="50"/>
+      <c r="FE14" s="50"/>
+      <c r="FF14" s="50"/>
+      <c r="FG14" s="50"/>
+      <c r="FH14" s="50"/>
+      <c r="FI14" s="50"/>
+      <c r="FJ14" s="50"/>
+      <c r="FK14" s="50"/>
+      <c r="FL14" s="50"/>
+      <c r="FM14" s="50"/>
+      <c r="FN14" s="50"/>
+      <c r="FO14" s="50"/>
+      <c r="FP14" s="50"/>
+      <c r="FQ14" s="50"/>
+      <c r="FR14" s="50"/>
+      <c r="FS14" s="50"/>
+      <c r="FT14" s="50"/>
+      <c r="FU14" s="50"/>
+      <c r="FV14" s="50"/>
+      <c r="FW14" s="50"/>
+      <c r="FX14" s="50"/>
+      <c r="FY14" s="50"/>
+      <c r="FZ14" s="50"/>
+      <c r="GA14" s="50"/>
+      <c r="GB14" s="50"/>
+      <c r="GC14" s="50"/>
+      <c r="GD14" s="50"/>
+      <c r="GE14" s="50"/>
+      <c r="GF14" s="50"/>
+      <c r="GG14" s="50"/>
+      <c r="GH14" s="50"/>
+      <c r="GI14" s="50"/>
+      <c r="GJ14" s="50"/>
+      <c r="GK14" s="50"/>
+      <c r="GL14" s="50"/>
+      <c r="GM14" s="50"/>
+      <c r="GN14" s="50"/>
+      <c r="GO14" s="50"/>
+      <c r="GP14" s="50"/>
+      <c r="GQ14" s="50"/>
+      <c r="GR14" s="50"/>
+      <c r="GS14" s="50"/>
+      <c r="GT14" s="50"/>
+      <c r="GU14" s="50"/>
+      <c r="GV14" s="50"/>
+      <c r="GW14" s="50"/>
+      <c r="GX14" s="50"/>
+      <c r="GY14" s="50"/>
+      <c r="GZ14" s="50"/>
+      <c r="HA14" s="50"/>
+      <c r="HB14" s="50"/>
+      <c r="HC14" s="50"/>
+      <c r="HD14" s="50"/>
+      <c r="HE14" s="50"/>
+      <c r="HF14" s="50"/>
+      <c r="HG14" s="50"/>
+      <c r="HH14" s="50"/>
+      <c r="HI14" s="50"/>
+      <c r="HJ14" s="50"/>
+      <c r="HK14" s="50"/>
+      <c r="HL14" s="50"/>
+      <c r="HM14" s="50"/>
+      <c r="HN14" s="50"/>
+      <c r="HO14" s="50"/>
+      <c r="HP14" s="50"/>
+      <c r="HQ14" s="50"/>
+      <c r="HR14" s="50"/>
+      <c r="HS14" s="50"/>
+      <c r="HT14" s="50"/>
+      <c r="HU14" s="50"/>
+      <c r="HV14" s="50"/>
+      <c r="HW14" s="50"/>
+      <c r="HX14" s="50"/>
+      <c r="HY14" s="50"/>
+      <c r="HZ14" s="50"/>
+      <c r="IA14" s="50"/>
+      <c r="IB14" s="50"/>
+      <c r="IC14" s="50"/>
+      <c r="ID14" s="50"/>
+      <c r="IE14" s="50"/>
+      <c r="IF14" s="50"/>
+      <c r="IG14" s="50"/>
+      <c r="IH14" s="50"/>
+      <c r="II14" s="50"/>
+      <c r="IJ14" s="50"/>
+      <c r="IK14" s="50"/>
+      <c r="IL14" s="50"/>
+      <c r="IM14" s="50"/>
+      <c r="IN14" s="50"/>
+      <c r="IO14" s="50"/>
+      <c r="IP14" s="50"/>
+      <c r="IQ14" s="50"/>
+      <c r="IR14" s="50"/>
+      <c r="IS14" s="50"/>
+      <c r="IT14" s="50"/>
+      <c r="IU14" s="50"/>
+      <c r="IV14" s="50"/>
+    </row>
+    <row r="15" spans="1:256" ht="25.5">
+      <c r="A15" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
+      <c r="BD15" s="50"/>
+      <c r="BE15" s="50"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="50"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="50"/>
+      <c r="BK15" s="50"/>
+      <c r="BL15" s="50"/>
+      <c r="BM15" s="50"/>
+      <c r="BN15" s="50"/>
+      <c r="BO15" s="50"/>
+      <c r="BP15" s="50"/>
+      <c r="BQ15" s="50"/>
+      <c r="BR15" s="50"/>
+      <c r="BS15" s="50"/>
+      <c r="BT15" s="50"/>
+      <c r="BU15" s="50"/>
+      <c r="BV15" s="50"/>
+      <c r="BW15" s="50"/>
+      <c r="BX15" s="50"/>
+      <c r="BY15" s="50"/>
+      <c r="BZ15" s="50"/>
+      <c r="CA15" s="50"/>
+      <c r="CB15" s="50"/>
+      <c r="CC15" s="50"/>
+      <c r="CD15" s="50"/>
+      <c r="CE15" s="50"/>
+      <c r="CF15" s="50"/>
+      <c r="CG15" s="50"/>
+      <c r="CH15" s="50"/>
+      <c r="CI15" s="50"/>
+      <c r="CJ15" s="50"/>
+      <c r="CK15" s="50"/>
+      <c r="CL15" s="50"/>
+      <c r="CM15" s="50"/>
+      <c r="CN15" s="50"/>
+      <c r="CO15" s="50"/>
+      <c r="CP15" s="50"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
+      <c r="CS15" s="50"/>
+      <c r="CT15" s="50"/>
+      <c r="CU15" s="50"/>
+      <c r="CV15" s="50"/>
+      <c r="CW15" s="50"/>
+      <c r="CX15" s="50"/>
+      <c r="CY15" s="50"/>
+      <c r="CZ15" s="50"/>
+      <c r="DA15" s="50"/>
+      <c r="DB15" s="50"/>
+      <c r="DC15" s="50"/>
+      <c r="DD15" s="50"/>
+      <c r="DE15" s="50"/>
+      <c r="DF15" s="50"/>
+      <c r="DG15" s="50"/>
+      <c r="DH15" s="50"/>
+      <c r="DI15" s="50"/>
+      <c r="DJ15" s="50"/>
+      <c r="DK15" s="50"/>
+      <c r="DL15" s="50"/>
+      <c r="DM15" s="50"/>
+      <c r="DN15" s="50"/>
+      <c r="DO15" s="50"/>
+      <c r="DP15" s="50"/>
+      <c r="DQ15" s="50"/>
+      <c r="DR15" s="50"/>
+      <c r="DS15" s="50"/>
+      <c r="DT15" s="50"/>
+      <c r="DU15" s="50"/>
+      <c r="DV15" s="50"/>
+      <c r="DW15" s="50"/>
+      <c r="DX15" s="50"/>
+      <c r="DY15" s="50"/>
+      <c r="DZ15" s="50"/>
+      <c r="EA15" s="50"/>
+      <c r="EB15" s="50"/>
+      <c r="EC15" s="50"/>
+      <c r="ED15" s="50"/>
+      <c r="EE15" s="50"/>
+      <c r="EF15" s="50"/>
+      <c r="EG15" s="50"/>
+      <c r="EH15" s="50"/>
+      <c r="EI15" s="50"/>
+      <c r="EJ15" s="50"/>
+      <c r="EK15" s="50"/>
+      <c r="EL15" s="50"/>
+      <c r="EM15" s="50"/>
+      <c r="EN15" s="50"/>
+      <c r="EO15" s="50"/>
+      <c r="EP15" s="50"/>
+      <c r="EQ15" s="50"/>
+      <c r="ER15" s="50"/>
+      <c r="ES15" s="50"/>
+      <c r="ET15" s="50"/>
+      <c r="EU15" s="50"/>
+      <c r="EV15" s="50"/>
+      <c r="EW15" s="50"/>
+      <c r="EX15" s="50"/>
+      <c r="EY15" s="50"/>
+      <c r="EZ15" s="50"/>
+      <c r="FA15" s="50"/>
+      <c r="FB15" s="50"/>
+      <c r="FC15" s="50"/>
+      <c r="FD15" s="50"/>
+      <c r="FE15" s="50"/>
+      <c r="FF15" s="50"/>
+      <c r="FG15" s="50"/>
+      <c r="FH15" s="50"/>
+      <c r="FI15" s="50"/>
+      <c r="FJ15" s="50"/>
+      <c r="FK15" s="50"/>
+      <c r="FL15" s="50"/>
+      <c r="FM15" s="50"/>
+      <c r="FN15" s="50"/>
+      <c r="FO15" s="50"/>
+      <c r="FP15" s="50"/>
+      <c r="FQ15" s="50"/>
+      <c r="FR15" s="50"/>
+      <c r="FS15" s="50"/>
+      <c r="FT15" s="50"/>
+      <c r="FU15" s="50"/>
+      <c r="FV15" s="50"/>
+      <c r="FW15" s="50"/>
+      <c r="FX15" s="50"/>
+      <c r="FY15" s="50"/>
+      <c r="FZ15" s="50"/>
+      <c r="GA15" s="50"/>
+      <c r="GB15" s="50"/>
+      <c r="GC15" s="50"/>
+      <c r="GD15" s="50"/>
+      <c r="GE15" s="50"/>
+      <c r="GF15" s="50"/>
+      <c r="GG15" s="50"/>
+      <c r="GH15" s="50"/>
+      <c r="GI15" s="50"/>
+      <c r="GJ15" s="50"/>
+      <c r="GK15" s="50"/>
+      <c r="GL15" s="50"/>
+      <c r="GM15" s="50"/>
+      <c r="GN15" s="50"/>
+      <c r="GO15" s="50"/>
+      <c r="GP15" s="50"/>
+      <c r="GQ15" s="50"/>
+      <c r="GR15" s="50"/>
+      <c r="GS15" s="50"/>
+      <c r="GT15" s="50"/>
+      <c r="GU15" s="50"/>
+      <c r="GV15" s="50"/>
+      <c r="GW15" s="50"/>
+      <c r="GX15" s="50"/>
+      <c r="GY15" s="50"/>
+      <c r="GZ15" s="50"/>
+      <c r="HA15" s="50"/>
+      <c r="HB15" s="50"/>
+      <c r="HC15" s="50"/>
+      <c r="HD15" s="50"/>
+      <c r="HE15" s="50"/>
+      <c r="HF15" s="50"/>
+      <c r="HG15" s="50"/>
+      <c r="HH15" s="50"/>
+      <c r="HI15" s="50"/>
+      <c r="HJ15" s="50"/>
+      <c r="HK15" s="50"/>
+      <c r="HL15" s="50"/>
+      <c r="HM15" s="50"/>
+      <c r="HN15" s="50"/>
+      <c r="HO15" s="50"/>
+      <c r="HP15" s="50"/>
+      <c r="HQ15" s="50"/>
+      <c r="HR15" s="50"/>
+      <c r="HS15" s="50"/>
+      <c r="HT15" s="50"/>
+      <c r="HU15" s="50"/>
+      <c r="HV15" s="50"/>
+      <c r="HW15" s="50"/>
+      <c r="HX15" s="50"/>
+      <c r="HY15" s="50"/>
+      <c r="HZ15" s="50"/>
+      <c r="IA15" s="50"/>
+      <c r="IB15" s="50"/>
+      <c r="IC15" s="50"/>
+      <c r="ID15" s="50"/>
+      <c r="IE15" s="50"/>
+      <c r="IF15" s="50"/>
+      <c r="IG15" s="50"/>
+      <c r="IH15" s="50"/>
+      <c r="II15" s="50"/>
+      <c r="IJ15" s="50"/>
+      <c r="IK15" s="50"/>
+      <c r="IL15" s="50"/>
+      <c r="IM15" s="50"/>
+      <c r="IN15" s="50"/>
+      <c r="IO15" s="50"/>
+      <c r="IP15" s="50"/>
+      <c r="IQ15" s="50"/>
+      <c r="IR15" s="50"/>
+      <c r="IS15" s="50"/>
+      <c r="IT15" s="50"/>
+      <c r="IU15" s="50"/>
+      <c r="IV15" s="50"/>
+    </row>
+    <row r="16" spans="1:256" ht="51">
+      <c r="A16" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="50"/>
+      <c r="BA16" s="50"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="50"/>
+      <c r="BH16" s="50"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="50"/>
+      <c r="BK16" s="50"/>
+      <c r="BL16" s="50"/>
+      <c r="BM16" s="50"/>
+      <c r="BN16" s="50"/>
+      <c r="BO16" s="50"/>
+      <c r="BP16" s="50"/>
+      <c r="BQ16" s="50"/>
+      <c r="BR16" s="50"/>
+      <c r="BS16" s="50"/>
+      <c r="BT16" s="50"/>
+      <c r="BU16" s="50"/>
+      <c r="BV16" s="50"/>
+      <c r="BW16" s="50"/>
+      <c r="BX16" s="50"/>
+      <c r="BY16" s="50"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="50"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="50"/>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="50"/>
+      <c r="CG16" s="50"/>
+      <c r="CH16" s="50"/>
+      <c r="CI16" s="50"/>
+      <c r="CJ16" s="50"/>
+      <c r="CK16" s="50"/>
+      <c r="CL16" s="50"/>
+      <c r="CM16" s="50"/>
+      <c r="CN16" s="50"/>
+      <c r="CO16" s="50"/>
+      <c r="CP16" s="50"/>
+      <c r="CQ16" s="50"/>
+      <c r="CR16" s="50"/>
+      <c r="CS16" s="50"/>
+      <c r="CT16" s="50"/>
+      <c r="CU16" s="50"/>
+      <c r="CV16" s="50"/>
+      <c r="CW16" s="50"/>
+      <c r="CX16" s="50"/>
+      <c r="CY16" s="50"/>
+      <c r="CZ16" s="50"/>
+      <c r="DA16" s="50"/>
+      <c r="DB16" s="50"/>
+      <c r="DC16" s="50"/>
+      <c r="DD16" s="50"/>
+      <c r="DE16" s="50"/>
+      <c r="DF16" s="50"/>
+      <c r="DG16" s="50"/>
+      <c r="DH16" s="50"/>
+      <c r="DI16" s="50"/>
+      <c r="DJ16" s="50"/>
+      <c r="DK16" s="50"/>
+      <c r="DL16" s="50"/>
+      <c r="DM16" s="50"/>
+      <c r="DN16" s="50"/>
+      <c r="DO16" s="50"/>
+      <c r="DP16" s="50"/>
+      <c r="DQ16" s="50"/>
+      <c r="DR16" s="50"/>
+      <c r="DS16" s="50"/>
+      <c r="DT16" s="50"/>
+      <c r="DU16" s="50"/>
+      <c r="DV16" s="50"/>
+      <c r="DW16" s="50"/>
+      <c r="DX16" s="50"/>
+      <c r="DY16" s="50"/>
+      <c r="DZ16" s="50"/>
+      <c r="EA16" s="50"/>
+      <c r="EB16" s="50"/>
+      <c r="EC16" s="50"/>
+      <c r="ED16" s="50"/>
+      <c r="EE16" s="50"/>
+      <c r="EF16" s="50"/>
+      <c r="EG16" s="50"/>
+      <c r="EH16" s="50"/>
+      <c r="EI16" s="50"/>
+      <c r="EJ16" s="50"/>
+      <c r="EK16" s="50"/>
+      <c r="EL16" s="50"/>
+      <c r="EM16" s="50"/>
+      <c r="EN16" s="50"/>
+      <c r="EO16" s="50"/>
+      <c r="EP16" s="50"/>
+      <c r="EQ16" s="50"/>
+      <c r="ER16" s="50"/>
+      <c r="ES16" s="50"/>
+      <c r="ET16" s="50"/>
+      <c r="EU16" s="50"/>
+      <c r="EV16" s="50"/>
+      <c r="EW16" s="50"/>
+      <c r="EX16" s="50"/>
+      <c r="EY16" s="50"/>
+      <c r="EZ16" s="50"/>
+      <c r="FA16" s="50"/>
+      <c r="FB16" s="50"/>
+      <c r="FC16" s="50"/>
+      <c r="FD16" s="50"/>
+      <c r="FE16" s="50"/>
+      <c r="FF16" s="50"/>
+      <c r="FG16" s="50"/>
+      <c r="FH16" s="50"/>
+      <c r="FI16" s="50"/>
+      <c r="FJ16" s="50"/>
+      <c r="FK16" s="50"/>
+      <c r="FL16" s="50"/>
+      <c r="FM16" s="50"/>
+      <c r="FN16" s="50"/>
+      <c r="FO16" s="50"/>
+      <c r="FP16" s="50"/>
+      <c r="FQ16" s="50"/>
+      <c r="FR16" s="50"/>
+      <c r="FS16" s="50"/>
+      <c r="FT16" s="50"/>
+      <c r="FU16" s="50"/>
+      <c r="FV16" s="50"/>
+      <c r="FW16" s="50"/>
+      <c r="FX16" s="50"/>
+      <c r="FY16" s="50"/>
+      <c r="FZ16" s="50"/>
+      <c r="GA16" s="50"/>
+      <c r="GB16" s="50"/>
+      <c r="GC16" s="50"/>
+      <c r="GD16" s="50"/>
+      <c r="GE16" s="50"/>
+      <c r="GF16" s="50"/>
+      <c r="GG16" s="50"/>
+      <c r="GH16" s="50"/>
+      <c r="GI16" s="50"/>
+      <c r="GJ16" s="50"/>
+      <c r="GK16" s="50"/>
+      <c r="GL16" s="50"/>
+      <c r="GM16" s="50"/>
+      <c r="GN16" s="50"/>
+      <c r="GO16" s="50"/>
+      <c r="GP16" s="50"/>
+      <c r="GQ16" s="50"/>
+      <c r="GR16" s="50"/>
+      <c r="GS16" s="50"/>
+      <c r="GT16" s="50"/>
+      <c r="GU16" s="50"/>
+      <c r="GV16" s="50"/>
+      <c r="GW16" s="50"/>
+      <c r="GX16" s="50"/>
+      <c r="GY16" s="50"/>
+      <c r="GZ16" s="50"/>
+      <c r="HA16" s="50"/>
+      <c r="HB16" s="50"/>
+      <c r="HC16" s="50"/>
+      <c r="HD16" s="50"/>
+      <c r="HE16" s="50"/>
+      <c r="HF16" s="50"/>
+      <c r="HG16" s="50"/>
+      <c r="HH16" s="50"/>
+      <c r="HI16" s="50"/>
+      <c r="HJ16" s="50"/>
+      <c r="HK16" s="50"/>
+      <c r="HL16" s="50"/>
+      <c r="HM16" s="50"/>
+      <c r="HN16" s="50"/>
+      <c r="HO16" s="50"/>
+      <c r="HP16" s="50"/>
+      <c r="HQ16" s="50"/>
+      <c r="HR16" s="50"/>
+      <c r="HS16" s="50"/>
+      <c r="HT16" s="50"/>
+      <c r="HU16" s="50"/>
+      <c r="HV16" s="50"/>
+      <c r="HW16" s="50"/>
+      <c r="HX16" s="50"/>
+      <c r="HY16" s="50"/>
+      <c r="HZ16" s="50"/>
+      <c r="IA16" s="50"/>
+      <c r="IB16" s="50"/>
+      <c r="IC16" s="50"/>
+      <c r="ID16" s="50"/>
+      <c r="IE16" s="50"/>
+      <c r="IF16" s="50"/>
+      <c r="IG16" s="50"/>
+      <c r="IH16" s="50"/>
+      <c r="II16" s="50"/>
+      <c r="IJ16" s="50"/>
+      <c r="IK16" s="50"/>
+      <c r="IL16" s="50"/>
+      <c r="IM16" s="50"/>
+      <c r="IN16" s="50"/>
+      <c r="IO16" s="50"/>
+      <c r="IP16" s="50"/>
+      <c r="IQ16" s="50"/>
+      <c r="IR16" s="50"/>
+      <c r="IS16" s="50"/>
+      <c r="IT16" s="50"/>
+      <c r="IU16" s="50"/>
+      <c r="IV16" s="50"/>
+    </row>
+    <row r="17" spans="1:256" ht="25.5">
+      <c r="A17" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="50"/>
+      <c r="BK17" s="50"/>
+      <c r="BL17" s="50"/>
+      <c r="BM17" s="50"/>
+      <c r="BN17" s="50"/>
+      <c r="BO17" s="50"/>
+      <c r="BP17" s="50"/>
+      <c r="BQ17" s="50"/>
+      <c r="BR17" s="50"/>
+      <c r="BS17" s="50"/>
+      <c r="BT17" s="50"/>
+      <c r="BU17" s="50"/>
+      <c r="BV17" s="50"/>
+      <c r="BW17" s="50"/>
+      <c r="BX17" s="50"/>
+      <c r="BY17" s="50"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="50"/>
+      <c r="CC17" s="50"/>
+      <c r="CD17" s="50"/>
+      <c r="CE17" s="50"/>
+      <c r="CF17" s="50"/>
+      <c r="CG17" s="50"/>
+      <c r="CH17" s="50"/>
+      <c r="CI17" s="50"/>
+      <c r="CJ17" s="50"/>
+      <c r="CK17" s="50"/>
+      <c r="CL17" s="50"/>
+      <c r="CM17" s="50"/>
+      <c r="CN17" s="50"/>
+      <c r="CO17" s="50"/>
+      <c r="CP17" s="50"/>
+      <c r="CQ17" s="50"/>
+      <c r="CR17" s="50"/>
+      <c r="CS17" s="50"/>
+      <c r="CT17" s="50"/>
+      <c r="CU17" s="50"/>
+      <c r="CV17" s="50"/>
+      <c r="CW17" s="50"/>
+      <c r="CX17" s="50"/>
+      <c r="CY17" s="50"/>
+      <c r="CZ17" s="50"/>
+      <c r="DA17" s="50"/>
+      <c r="DB17" s="50"/>
+      <c r="DC17" s="50"/>
+      <c r="DD17" s="50"/>
+      <c r="DE17" s="50"/>
+      <c r="DF17" s="50"/>
+      <c r="DG17" s="50"/>
+      <c r="DH17" s="50"/>
+      <c r="DI17" s="50"/>
+      <c r="DJ17" s="50"/>
+      <c r="DK17" s="50"/>
+      <c r="DL17" s="50"/>
+      <c r="DM17" s="50"/>
+      <c r="DN17" s="50"/>
+      <c r="DO17" s="50"/>
+      <c r="DP17" s="50"/>
+      <c r="DQ17" s="50"/>
+      <c r="DR17" s="50"/>
+      <c r="DS17" s="50"/>
+      <c r="DT17" s="50"/>
+      <c r="DU17" s="50"/>
+      <c r="DV17" s="50"/>
+      <c r="DW17" s="50"/>
+      <c r="DX17" s="50"/>
+      <c r="DY17" s="50"/>
+      <c r="DZ17" s="50"/>
+      <c r="EA17" s="50"/>
+      <c r="EB17" s="50"/>
+      <c r="EC17" s="50"/>
+      <c r="ED17" s="50"/>
+      <c r="EE17" s="50"/>
+      <c r="EF17" s="50"/>
+      <c r="EG17" s="50"/>
+      <c r="EH17" s="50"/>
+      <c r="EI17" s="50"/>
+      <c r="EJ17" s="50"/>
+      <c r="EK17" s="50"/>
+      <c r="EL17" s="50"/>
+      <c r="EM17" s="50"/>
+      <c r="EN17" s="50"/>
+      <c r="EO17" s="50"/>
+      <c r="EP17" s="50"/>
+      <c r="EQ17" s="50"/>
+      <c r="ER17" s="50"/>
+      <c r="ES17" s="50"/>
+      <c r="ET17" s="50"/>
+      <c r="EU17" s="50"/>
+      <c r="EV17" s="50"/>
+      <c r="EW17" s="50"/>
+      <c r="EX17" s="50"/>
+      <c r="EY17" s="50"/>
+      <c r="EZ17" s="50"/>
+      <c r="FA17" s="50"/>
+      <c r="FB17" s="50"/>
+      <c r="FC17" s="50"/>
+      <c r="FD17" s="50"/>
+      <c r="FE17" s="50"/>
+      <c r="FF17" s="50"/>
+      <c r="FG17" s="50"/>
+      <c r="FH17" s="50"/>
+      <c r="FI17" s="50"/>
+      <c r="FJ17" s="50"/>
+      <c r="FK17" s="50"/>
+      <c r="FL17" s="50"/>
+      <c r="FM17" s="50"/>
+      <c r="FN17" s="50"/>
+      <c r="FO17" s="50"/>
+      <c r="FP17" s="50"/>
+      <c r="FQ17" s="50"/>
+      <c r="FR17" s="50"/>
+      <c r="FS17" s="50"/>
+      <c r="FT17" s="50"/>
+      <c r="FU17" s="50"/>
+      <c r="FV17" s="50"/>
+      <c r="FW17" s="50"/>
+      <c r="FX17" s="50"/>
+      <c r="FY17" s="50"/>
+      <c r="FZ17" s="50"/>
+      <c r="GA17" s="50"/>
+      <c r="GB17" s="50"/>
+      <c r="GC17" s="50"/>
+      <c r="GD17" s="50"/>
+      <c r="GE17" s="50"/>
+      <c r="GF17" s="50"/>
+      <c r="GG17" s="50"/>
+      <c r="GH17" s="50"/>
+      <c r="GI17" s="50"/>
+      <c r="GJ17" s="50"/>
+      <c r="GK17" s="50"/>
+      <c r="GL17" s="50"/>
+      <c r="GM17" s="50"/>
+      <c r="GN17" s="50"/>
+      <c r="GO17" s="50"/>
+      <c r="GP17" s="50"/>
+      <c r="GQ17" s="50"/>
+      <c r="GR17" s="50"/>
+      <c r="GS17" s="50"/>
+      <c r="GT17" s="50"/>
+      <c r="GU17" s="50"/>
+      <c r="GV17" s="50"/>
+      <c r="GW17" s="50"/>
+      <c r="GX17" s="50"/>
+      <c r="GY17" s="50"/>
+      <c r="GZ17" s="50"/>
+      <c r="HA17" s="50"/>
+      <c r="HB17" s="50"/>
+      <c r="HC17" s="50"/>
+      <c r="HD17" s="50"/>
+      <c r="HE17" s="50"/>
+      <c r="HF17" s="50"/>
+      <c r="HG17" s="50"/>
+      <c r="HH17" s="50"/>
+      <c r="HI17" s="50"/>
+      <c r="HJ17" s="50"/>
+      <c r="HK17" s="50"/>
+      <c r="HL17" s="50"/>
+      <c r="HM17" s="50"/>
+      <c r="HN17" s="50"/>
+      <c r="HO17" s="50"/>
+      <c r="HP17" s="50"/>
+      <c r="HQ17" s="50"/>
+      <c r="HR17" s="50"/>
+      <c r="HS17" s="50"/>
+      <c r="HT17" s="50"/>
+      <c r="HU17" s="50"/>
+      <c r="HV17" s="50"/>
+      <c r="HW17" s="50"/>
+      <c r="HX17" s="50"/>
+      <c r="HY17" s="50"/>
+      <c r="HZ17" s="50"/>
+      <c r="IA17" s="50"/>
+      <c r="IB17" s="50"/>
+      <c r="IC17" s="50"/>
+      <c r="ID17" s="50"/>
+      <c r="IE17" s="50"/>
+      <c r="IF17" s="50"/>
+      <c r="IG17" s="50"/>
+      <c r="IH17" s="50"/>
+      <c r="II17" s="50"/>
+      <c r="IJ17" s="50"/>
+      <c r="IK17" s="50"/>
+      <c r="IL17" s="50"/>
+      <c r="IM17" s="50"/>
+      <c r="IN17" s="50"/>
+      <c r="IO17" s="50"/>
+      <c r="IP17" s="50"/>
+      <c r="IQ17" s="50"/>
+      <c r="IR17" s="50"/>
+      <c r="IS17" s="50"/>
+      <c r="IT17" s="50"/>
+      <c r="IU17" s="50"/>
+      <c r="IV17" s="50"/>
+    </row>
+    <row r="18" spans="1:256" ht="51">
+      <c r="A18" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
+      <c r="BQ18" s="50"/>
+      <c r="BR18" s="50"/>
+      <c r="BS18" s="50"/>
+      <c r="BT18" s="50"/>
+      <c r="BU18" s="50"/>
+      <c r="BV18" s="50"/>
+      <c r="BW18" s="50"/>
+      <c r="BX18" s="50"/>
+      <c r="BY18" s="50"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="50"/>
+      <c r="CC18" s="50"/>
+      <c r="CD18" s="50"/>
+      <c r="CE18" s="50"/>
+      <c r="CF18" s="50"/>
+      <c r="CG18" s="50"/>
+      <c r="CH18" s="50"/>
+      <c r="CI18" s="50"/>
+      <c r="CJ18" s="50"/>
+      <c r="CK18" s="50"/>
+      <c r="CL18" s="50"/>
+      <c r="CM18" s="50"/>
+      <c r="CN18" s="50"/>
+      <c r="CO18" s="50"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="50"/>
+      <c r="CS18" s="50"/>
+      <c r="CT18" s="50"/>
+      <c r="CU18" s="50"/>
+      <c r="CV18" s="50"/>
+      <c r="CW18" s="50"/>
+      <c r="CX18" s="50"/>
+      <c r="CY18" s="50"/>
+      <c r="CZ18" s="50"/>
+      <c r="DA18" s="50"/>
+      <c r="DB18" s="50"/>
+      <c r="DC18" s="50"/>
+      <c r="DD18" s="50"/>
+      <c r="DE18" s="50"/>
+      <c r="DF18" s="50"/>
+      <c r="DG18" s="50"/>
+      <c r="DH18" s="50"/>
+      <c r="DI18" s="50"/>
+      <c r="DJ18" s="50"/>
+      <c r="DK18" s="50"/>
+      <c r="DL18" s="50"/>
+      <c r="DM18" s="50"/>
+      <c r="DN18" s="50"/>
+      <c r="DO18" s="50"/>
+      <c r="DP18" s="50"/>
+      <c r="DQ18" s="50"/>
+      <c r="DR18" s="50"/>
+      <c r="DS18" s="50"/>
+      <c r="DT18" s="50"/>
+      <c r="DU18" s="50"/>
+      <c r="DV18" s="50"/>
+      <c r="DW18" s="50"/>
+      <c r="DX18" s="50"/>
+      <c r="DY18" s="50"/>
+      <c r="DZ18" s="50"/>
+      <c r="EA18" s="50"/>
+      <c r="EB18" s="50"/>
+      <c r="EC18" s="50"/>
+      <c r="ED18" s="50"/>
+      <c r="EE18" s="50"/>
+      <c r="EF18" s="50"/>
+      <c r="EG18" s="50"/>
+      <c r="EH18" s="50"/>
+      <c r="EI18" s="50"/>
+      <c r="EJ18" s="50"/>
+      <c r="EK18" s="50"/>
+      <c r="EL18" s="50"/>
+      <c r="EM18" s="50"/>
+      <c r="EN18" s="50"/>
+      <c r="EO18" s="50"/>
+      <c r="EP18" s="50"/>
+      <c r="EQ18" s="50"/>
+      <c r="ER18" s="50"/>
+      <c r="ES18" s="50"/>
+      <c r="ET18" s="50"/>
+      <c r="EU18" s="50"/>
+      <c r="EV18" s="50"/>
+      <c r="EW18" s="50"/>
+      <c r="EX18" s="50"/>
+      <c r="EY18" s="50"/>
+      <c r="EZ18" s="50"/>
+      <c r="FA18" s="50"/>
+      <c r="FB18" s="50"/>
+      <c r="FC18" s="50"/>
+      <c r="FD18" s="50"/>
+      <c r="FE18" s="50"/>
+      <c r="FF18" s="50"/>
+      <c r="FG18" s="50"/>
+      <c r="FH18" s="50"/>
+      <c r="FI18" s="50"/>
+      <c r="FJ18" s="50"/>
+      <c r="FK18" s="50"/>
+      <c r="FL18" s="50"/>
+      <c r="FM18" s="50"/>
+      <c r="FN18" s="50"/>
+      <c r="FO18" s="50"/>
+      <c r="FP18" s="50"/>
+      <c r="FQ18" s="50"/>
+      <c r="FR18" s="50"/>
+      <c r="FS18" s="50"/>
+      <c r="FT18" s="50"/>
+      <c r="FU18" s="50"/>
+      <c r="FV18" s="50"/>
+      <c r="FW18" s="50"/>
+      <c r="FX18" s="50"/>
+      <c r="FY18" s="50"/>
+      <c r="FZ18" s="50"/>
+      <c r="GA18" s="50"/>
+      <c r="GB18" s="50"/>
+      <c r="GC18" s="50"/>
+      <c r="GD18" s="50"/>
+      <c r="GE18" s="50"/>
+      <c r="GF18" s="50"/>
+      <c r="GG18" s="50"/>
+      <c r="GH18" s="50"/>
+      <c r="GI18" s="50"/>
+      <c r="GJ18" s="50"/>
+      <c r="GK18" s="50"/>
+      <c r="GL18" s="50"/>
+      <c r="GM18" s="50"/>
+      <c r="GN18" s="50"/>
+      <c r="GO18" s="50"/>
+      <c r="GP18" s="50"/>
+      <c r="GQ18" s="50"/>
+      <c r="GR18" s="50"/>
+      <c r="GS18" s="50"/>
+      <c r="GT18" s="50"/>
+      <c r="GU18" s="50"/>
+      <c r="GV18" s="50"/>
+      <c r="GW18" s="50"/>
+      <c r="GX18" s="50"/>
+      <c r="GY18" s="50"/>
+      <c r="GZ18" s="50"/>
+      <c r="HA18" s="50"/>
+      <c r="HB18" s="50"/>
+      <c r="HC18" s="50"/>
+      <c r="HD18" s="50"/>
+      <c r="HE18" s="50"/>
+      <c r="HF18" s="50"/>
+      <c r="HG18" s="50"/>
+      <c r="HH18" s="50"/>
+      <c r="HI18" s="50"/>
+      <c r="HJ18" s="50"/>
+      <c r="HK18" s="50"/>
+      <c r="HL18" s="50"/>
+      <c r="HM18" s="50"/>
+      <c r="HN18" s="50"/>
+      <c r="HO18" s="50"/>
+      <c r="HP18" s="50"/>
+      <c r="HQ18" s="50"/>
+      <c r="HR18" s="50"/>
+      <c r="HS18" s="50"/>
+      <c r="HT18" s="50"/>
+      <c r="HU18" s="50"/>
+      <c r="HV18" s="50"/>
+      <c r="HW18" s="50"/>
+      <c r="HX18" s="50"/>
+      <c r="HY18" s="50"/>
+      <c r="HZ18" s="50"/>
+      <c r="IA18" s="50"/>
+      <c r="IB18" s="50"/>
+      <c r="IC18" s="50"/>
+      <c r="ID18" s="50"/>
+      <c r="IE18" s="50"/>
+      <c r="IF18" s="50"/>
+      <c r="IG18" s="50"/>
+      <c r="IH18" s="50"/>
+      <c r="II18" s="50"/>
+      <c r="IJ18" s="50"/>
+      <c r="IK18" s="50"/>
+      <c r="IL18" s="50"/>
+      <c r="IM18" s="50"/>
+      <c r="IN18" s="50"/>
+      <c r="IO18" s="50"/>
+      <c r="IP18" s="50"/>
+      <c r="IQ18" s="50"/>
+      <c r="IR18" s="50"/>
+      <c r="IS18" s="50"/>
+      <c r="IT18" s="50"/>
+      <c r="IU18" s="50"/>
+      <c r="IV18" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4787,48 +6390,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="43" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="43" customWidth="1"/>
-    <col min="7" max="256" width="8.125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="43" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="14">
         <v>40590</v>
       </c>
       <c r="B2" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
@@ -4837,7 +6442,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="14">
         <v>40604</v>
       </c>
@@ -4846,7 +6451,7 @@
       </c>
       <c r="C3" s="6">
         <f>B2-B3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>53</v>
@@ -4859,23 +6464,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="14">
         <v>40625</v>
       </c>
       <c r="B4" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6">
         <f>B3-B4</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
-        <f>SUM('Sprint2'!H2:H10)</f>
+        <f>SUM(Sprint2!H2:H10)</f>
         <v>215</v>
       </c>
       <c r="E4" s="5">
-        <f>SUM('Sprint2'!I2:I10)</f>
+        <f>SUM(Sprint2!I2:I10)</f>
         <v>365</v>
       </c>
       <c r="F4" s="44">
@@ -4883,58 +6488,57 @@
         <v>26.63013698630137</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="14">
         <v>40639</v>
       </c>
       <c r="B5" s="6">
-        <f>B4</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <f>B4-B5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <f>SUM(Sprint3!H2:H10)</f>
+        <v>433</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUM(Sprint3!I3:I11)</f>
+        <v>300</v>
       </c>
       <c r="F5" s="44">
         <f>(D5-D4)/E5*60</f>
-      </c>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="14">
         <v>40653</v>
       </c>
-      <c r="B6" s="6">
-        <f>B5</f>
-        <v>18</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6">
         <f>B5-B6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <f>SUM(Sprint4!H2:H10)</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <f>SUM(Sprint4!I2:I10)</f>
+        <v>40</v>
       </c>
       <c r="F6" s="44">
         <f>(D6-D5)/E6*60</f>
-      </c>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
+        <v>-604.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="14">
         <v>40667</v>
       </c>
-      <c r="B7" s="6">
-        <f>B6</f>
-        <v>18</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6">
         <f>B6-B7</f>
         <v>0</v>
@@ -4942,14 +6546,16 @@
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
+        <f>SUM(Sprint5!I2:I10)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="44" t="e">
         <f>(D7-D6)/E7*60</f>
-      </c>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4957,7 +6563,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4965,7 +6571,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4975,82 +6581,83 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="45" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="45" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="45" customWidth="1"/>
     <col min="4" max="4" width="5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="45" customWidth="1"/>
     <col min="8" max="8" width="5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="45" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="45" customWidth="1"/>
     <col min="10" max="10" width="8" style="45" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="45" customWidth="1"/>
+    <col min="11" max="256" width="8.09765625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s" s="27">
+      <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s" s="27">
-        <v>182</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s" s="6">
+      <c r="C2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="6">
@@ -5069,21 +6676,21 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="27">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>185</v>
+      <c r="C3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
@@ -5099,21 +6706,21 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s" s="27">
-        <v>186</v>
-      </c>
-      <c r="C4" t="s" s="27">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>184</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>185</v>
+      <c r="B4" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F4" s="5">
         <v>100</v>
@@ -5129,20 +6736,20 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s" s="27">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s" s="27">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s" s="6">
+      <c r="B5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="5">
@@ -5161,20 +6768,20 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="6" ht="29.1" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s" s="27">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s" s="27">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s" s="6">
+      <c r="B6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="5">
@@ -5191,7 +6798,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -5203,7 +6810,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -5215,7 +6822,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5227,7 +6834,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="26.1" customHeight="1">
+    <row r="10" spans="1:10" ht="26.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -5239,7 +6846,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" ht="17.1" customHeight="1">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -5251,7 +6858,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" ht="26.1" customHeight="1">
+    <row r="12" spans="1:10" ht="26.1" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -5263,7 +6870,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" ht="17.1" customHeight="1">
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -5275,10 +6882,10 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" ht="17.1" customHeight="1">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" t="s" s="26">
-        <v>188</v>
+      <c r="B14" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="5"/>
@@ -5289,7 +6896,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" ht="17.1" customHeight="1">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="46"/>
       <c r="C15" s="42"/>
@@ -5301,10 +6908,10 @@
       <c r="I15" s="5"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" ht="17.1" customHeight="1">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" t="s" s="26">
-        <v>189</v>
+      <c r="B16" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="5"/>
@@ -5315,10 +6922,10 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" ht="17.1" customHeight="1">
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" t="s" s="27">
-        <v>190</v>
+      <c r="B17" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="5"/>
@@ -5329,10 +6936,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" ht="26.1" customHeight="1">
+    <row r="18" spans="1:10" ht="26.1" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" t="s" s="27">
-        <v>191</v>
+      <c r="B18" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="5"/>
@@ -5343,7 +6950,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="17.1" customHeight="1">
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -5355,10 +6962,10 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" ht="17.1" customHeight="1">
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" t="s" s="26">
-        <v>192</v>
+      <c r="B20" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="5"/>
@@ -5369,10 +6976,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" ht="26.1" customHeight="1">
+    <row r="21" spans="1:10" ht="26.1" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" t="s" s="27">
-        <v>193</v>
+      <c r="B21" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="5"/>
@@ -5385,7 +6992,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -5393,72 +7000,64 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="47" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="47" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="47" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s" s="6">
+      <c r="C2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="5">
@@ -5474,23 +7073,23 @@
         <v>50</v>
       </c>
       <c r="J2" s="5">
-        <v>0.130434782608696</v>
-      </c>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" t="s" s="6">
+        <v>0.13043478260869601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="5">
@@ -5507,20 +7106,20 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s" s="6">
+      <c r="C4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="5">
@@ -5537,20 +7136,20 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s" s="6">
+      <c r="C5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="5">
@@ -5567,20 +7166,20 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>194</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s" s="6">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="5">
@@ -5597,20 +7196,20 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>196</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>197</v>
-      </c>
-      <c r="D7" t="s" s="6">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s" s="6">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="5">
@@ -5627,7 +7226,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5639,7 +7238,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5651,7 +7250,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5665,7 +7264,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -5673,131 +7272,241 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="48" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:10" ht="29.1" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="9">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="9">
+      <c r="J1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5">
+        <v>90</v>
+      </c>
+      <c r="I2" s="5">
+        <v>90</v>
+      </c>
+      <c r="J2" s="13">
+        <v>40639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>200</v>
+      </c>
+      <c r="I3" s="5">
+        <v>90</v>
+      </c>
+      <c r="J3" s="13">
+        <v>40639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="66">
+        <v>30</v>
+      </c>
+      <c r="G4" s="66">
+        <v>100</v>
+      </c>
+      <c r="H4" s="66">
+        <v>43</v>
+      </c>
+      <c r="I4" s="66">
+        <v>120</v>
+      </c>
+      <c r="J4" s="13">
+        <v>40639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="66">
+        <v>60</v>
+      </c>
+      <c r="G5" s="66">
+        <v>20</v>
+      </c>
+      <c r="H5" s="66">
+        <v>40</v>
+      </c>
+      <c r="I5" s="66">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13">
+        <v>40639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="5">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>40</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="5">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5">
+        <v>40</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5809,7 +7518,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="17.1" customHeight="1">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5821,7 +7530,355 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" ht="17.1" customHeight="1">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B11" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B12" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B13" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B14" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" ht="12.95" customHeight="1">
+      <c r="B17" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.09765625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.1" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5">
+        <v>120</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <v>120</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="5">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5832,180 +7889,106 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B11" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B12" s="46"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B13" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B14" s="27"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B15" s="27"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.95" customHeight="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" ht="12.95" customHeight="1">
+      <c r="B17" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" ht="12.95" customHeight="1">
+      <c r="B18" s="27"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="49" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29.1" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="26">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="17.1" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="17.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="17.1" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="17.1" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="17.1" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="17.1" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="17.1" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="17.1" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="17.1" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/GEDCOM_JAVA/Team04Report 2.xlsx
+++ b/GEDCOM_JAVA/Team04Report 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" tabRatio="674" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="256">
   <si>
     <t>Initials</t>
   </si>
@@ -280,9 +280,6 @@
     <t>US20</t>
   </si>
   <si>
-    <t>Dual Role</t>
-  </si>
-  <si>
     <t>US21</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>Siblings can't be married if biological siblings</t>
   </si>
   <si>
-    <t>Indvidual can't be both a spouse and a child to same family</t>
-  </si>
-  <si>
     <t>Individual is a spouse to multipile families without a Divore or Deathdate</t>
   </si>
   <si>
@@ -646,9 +640,6 @@
     <t>Set weekly deadlines</t>
   </si>
   <si>
-    <t>Not communicating more whena  problem appears</t>
-  </si>
-  <si>
     <t>AT 28</t>
   </si>
   <si>
@@ -731,6 +722,102 @@
   </si>
   <si>
     <t>Needs to finish</t>
+  </si>
+  <si>
+    <t>Legal marriage</t>
+  </si>
+  <si>
+    <t>Legal Marriage</t>
+  </si>
+  <si>
+    <t>Not communicating more when a  problem appears</t>
+  </si>
+  <si>
+    <t>Comment at end</t>
+  </si>
+  <si>
+    <t>Ran error checking at start didn't have to reconstruct architecture</t>
+  </si>
+  <si>
+    <t>AT21</t>
+  </si>
+  <si>
+    <t>If any family has 2 HUSB or WIFE tags then it should alert when file is being parsed</t>
+  </si>
+  <si>
+    <t>AT20</t>
+  </si>
+  <si>
+    <t>NJPRE2013</t>
+  </si>
+  <si>
+    <t>All spouses have to be over 18</t>
+  </si>
+  <si>
+    <t>AT13</t>
+  </si>
+  <si>
+    <t>AT14</t>
+  </si>
+  <si>
+    <t>AT17</t>
+  </si>
+  <si>
+    <t>AT23</t>
+  </si>
+  <si>
+    <t>AT26</t>
+  </si>
+  <si>
+    <t>AT27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If any individual is a spouse in several families an error might occur. For every non currnet family( family that isn't mrked as FAMS in individual record), if there is no divorce date for the family or a death date for the other spouse an error will occur. In addition, </t>
+  </si>
+  <si>
+    <t>AT29</t>
+  </si>
+  <si>
+    <t>AT1</t>
+  </si>
+  <si>
+    <t>AT2</t>
+  </si>
+  <si>
+    <t>AT3</t>
+  </si>
+  <si>
+    <t>AT4</t>
+  </si>
+  <si>
+    <t>AT5</t>
+  </si>
+  <si>
+    <t>AT6</t>
+  </si>
+  <si>
+    <t>AT7</t>
+  </si>
+  <si>
+    <t>AT8</t>
+  </si>
+  <si>
+    <t>AT9</t>
+  </si>
+  <si>
+    <t>AT 15</t>
+  </si>
+  <si>
+    <t>GED file,Individual Structure</t>
+  </si>
+  <si>
+    <t>Date of birth comes first when compared to date of Death</t>
+  </si>
+  <si>
+    <t>AT 16</t>
+  </si>
+  <si>
+    <t>Difference between each children’s date of birth should be 90 to 145 days</t>
   </si>
 </sst>
 </file>
@@ -741,7 +828,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -789,6 +876,16 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1053,15 +1150,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1129,15 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1239,10 +1336,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1430,6 +1545,9 @@
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1445,11 +1563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80159104"/>
-        <c:axId val="80187392"/>
+        <c:axId val="106151936"/>
+        <c:axId val="106153856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80159104"/>
+        <c:axId val="106151936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80187392"/>
+        <c:crossAx val="106153856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1610,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80187392"/>
+        <c:axId val="106153856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80159104"/>
+        <c:crossAx val="106151936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7.5"/>
@@ -3016,7 +3134,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="8.09765625" style="50" customWidth="1"/>
+    <col min="1" max="256" width="8.09765625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.1" customHeight="1">
@@ -3173,7 +3291,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
@@ -3246,7 +3364,9 @@
       <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
@@ -3285,7 +3405,9 @@
       <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
@@ -3324,7 +3446,9 @@
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3363,7 +3487,9 @@
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -3402,7 +3528,9 @@
       <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3441,7 +3569,9 @@
       <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +3610,9 @@
       <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
@@ -3519,7 +3651,9 @@
       <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3558,7 +3692,9 @@
       <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
@@ -3595,9 +3731,11 @@
         <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3636,7 +3774,9 @@
       <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
@@ -3675,7 +3815,9 @@
       <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
@@ -3714,26 +3856,28 @@
       <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="55" t="s">
+      <c r="D14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="51">
         <v>25</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="51">
         <v>100</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="51">
         <v>38</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="51">
         <v>80</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="53">
         <v>40639</v>
       </c>
       <c r="L14" s="5"/>
@@ -3753,26 +3897,28 @@
       <c r="C15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="55" t="s">
+      <c r="D15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="51">
         <v>30</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="51">
         <v>20</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="51">
         <v>38</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="51">
         <v>20</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="53">
         <v>40639</v>
       </c>
       <c r="L15" s="5"/>
@@ -3792,20 +3938,30 @@
       <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="5">
         <v>50</v>
       </c>
       <c r="H16" s="5">
         <v>40</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="13"/>
+      <c r="I16" s="73">
+        <v>36</v>
+      </c>
+      <c r="J16" s="73">
+        <v>60</v>
+      </c>
+      <c r="K16" s="13">
+        <v>40288</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="18"/>
       <c r="N16" s="19"/>
@@ -3823,11 +3979,15 @@
       <c r="C17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="5">
         <v>100</v>
       </c>
@@ -3845,16 +4005,16 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -3879,12 +4039,14 @@
       <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5">
         <v>25</v>
@@ -3898,7 +4060,9 @@
       <c r="J19" s="5">
         <v>40</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="13">
+        <v>40650</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="18"/>
       <c r="N19" s="19"/>
@@ -3907,25 +4071,15 @@
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="12.95" customHeight="1">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>100</v>
-      </c>
-      <c r="H20" s="5">
-        <v>120</v>
+      <c r="D20" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3938,18 +4092,28 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="12.95" customHeight="1">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5">
+        <v>120</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="13"/>
@@ -3961,21 +4125,39 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="12.95" customHeight="1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
       <c r="B22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="13"/>
+      <c r="D22" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5">
+        <v>60</v>
+      </c>
+      <c r="I22" s="5">
+        <v>130</v>
+      </c>
+      <c r="J22" s="5">
+        <v>60</v>
+      </c>
+      <c r="K22" s="13">
+        <v>40653</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
@@ -3988,17 +4170,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="5">
         <v>25</v>
@@ -4023,12 +4207,14 @@
     <row r="24" spans="1:17" ht="12.95" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -4048,21 +4234,23 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H25" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4079,23 +4267,27 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5">
-        <v>60</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I26" s="5">
+        <v>50</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="13"/>
       <c r="L26" s="5"/>
@@ -4108,12 +4300,14 @@
     <row r="27" spans="1:17" ht="12.95" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -4131,12 +4325,14 @@
     <row r="28" spans="1:17" ht="12.95" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -4156,12 +4352,14 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4405,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
@@ -4229,7 +4427,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>25</v>
@@ -4246,19 +4444,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E2" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.1" customHeight="1">
@@ -4266,16 +4464,16 @@
         <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E3" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
         <v>25</v>
@@ -4289,15 +4487,15 @@
         <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="6">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5">
         <v>30</v>
       </c>
     </row>
@@ -4309,15 +4507,15 @@
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -4326,18 +4524,18 @@
         <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
         <v>15</v>
       </c>
     </row>
@@ -4346,19 +4544,19 @@
         <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c r="E7" s="5">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
@@ -4366,19 +4564,19 @@
         <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6">
-        <v>40</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
@@ -4389,10 +4587,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
@@ -4409,10 +4607,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E10" s="5">
         <v>15</v>
@@ -4429,10 +4627,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -4449,11 +4647,17 @@
         <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="12.95" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -4463,11 +4667,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="5">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="12.95" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -4477,11 +4687,17 @@
         <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="63">
+        <v>25</v>
+      </c>
+      <c r="F14" s="63">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="12.95" customHeight="1">
       <c r="A15" s="6" t="s">
@@ -4491,11 +4707,17 @@
         <v>64</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="63">
+        <v>30</v>
+      </c>
+      <c r="F15" s="63">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="12.95" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -4505,11 +4727,17 @@
         <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="5">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" customHeight="1">
       <c r="A17" s="21" t="s">
@@ -4519,11 +4747,17 @@
         <v>68</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="12.95" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -4533,9 +4767,11 @@
         <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
@@ -4547,11 +4783,17 @@
         <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="5">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.95" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -4561,145 +4803,191 @@
         <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="12.95" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="12.95" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.95" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="5">
+        <v>25</v>
+      </c>
+      <c r="F23" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.95" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>220</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="12.95" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="5">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="12.95" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="5">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.95" customHeight="1">
       <c r="A27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="12.95" customHeight="1">
       <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="12.95" customHeight="1">
       <c r="A29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="5">
+        <v>150</v>
+      </c>
+      <c r="F29" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="12.95" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4712,26 +5000,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV18"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="A18:E18"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="31" style="31" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="45.3984375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="31" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="31" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="45.3984375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="28" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -4740,10 +5028,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>27</v>
@@ -4756,7 +5044,7 @@
     </row>
     <row r="2" spans="1:256" ht="45" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>34</v>
@@ -4764,11 +5052,11 @@
       <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>137</v>
+      <c r="D2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -4781,14 +5069,14 @@
     </row>
     <row r="3" spans="1:256" ht="45" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="5"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
@@ -4798,21 +5086,21 @@
     </row>
     <row r="4" spans="1:256" ht="45" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="15"/>
@@ -4823,24 +5111,24 @@
     </row>
     <row r="5" spans="1:256" ht="45" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -4848,24 +5136,24 @@
     </row>
     <row r="6" spans="1:256" ht="45" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="39"/>
+      <c r="F6" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="36"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -4873,16 +5161,18 @@
     </row>
     <row r="7" spans="1:256" ht="45" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -4890,16 +5180,18 @@
     </row>
     <row r="8" spans="1:256" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39"/>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -4907,7 +5199,7 @@
     </row>
     <row r="9" spans="1:256" ht="47.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>51</v>
@@ -4915,11 +5207,11 @@
       <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>156</v>
+      <c r="D9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>42</v>
@@ -4932,7 +5224,7 @@
     </row>
     <row r="10" spans="1:256" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>53</v>
@@ -4941,10 +5233,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>42</v>
@@ -4957,19 +5249,19 @@
     </row>
     <row r="11" spans="1:256" ht="57.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>42</v>
@@ -4982,19 +5274,19 @@
     </row>
     <row r="12" spans="1:256" ht="25.5">
       <c r="A12" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>42</v>
@@ -5007,19 +5299,19 @@
     </row>
     <row r="13" spans="1:256" ht="25.5">
       <c r="A13" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>169</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>42</v>
@@ -5031,548 +5323,548 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:256" ht="25.5">
-      <c r="A14" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="47"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="47"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="47"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="47"/>
+      <c r="BJ14" s="47"/>
+      <c r="BK14" s="47"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="47"/>
+      <c r="BN14" s="47"/>
+      <c r="BO14" s="47"/>
+      <c r="BP14" s="47"/>
+      <c r="BQ14" s="47"/>
+      <c r="BR14" s="47"/>
+      <c r="BS14" s="47"/>
+      <c r="BT14" s="47"/>
+      <c r="BU14" s="47"/>
+      <c r="BV14" s="47"/>
+      <c r="BW14" s="47"/>
+      <c r="BX14" s="47"/>
+      <c r="BY14" s="47"/>
+      <c r="BZ14" s="47"/>
+      <c r="CA14" s="47"/>
+      <c r="CB14" s="47"/>
+      <c r="CC14" s="47"/>
+      <c r="CD14" s="47"/>
+      <c r="CE14" s="47"/>
+      <c r="CF14" s="47"/>
+      <c r="CG14" s="47"/>
+      <c r="CH14" s="47"/>
+      <c r="CI14" s="47"/>
+      <c r="CJ14" s="47"/>
+      <c r="CK14" s="47"/>
+      <c r="CL14" s="47"/>
+      <c r="CM14" s="47"/>
+      <c r="CN14" s="47"/>
+      <c r="CO14" s="47"/>
+      <c r="CP14" s="47"/>
+      <c r="CQ14" s="47"/>
+      <c r="CR14" s="47"/>
+      <c r="CS14" s="47"/>
+      <c r="CT14" s="47"/>
+      <c r="CU14" s="47"/>
+      <c r="CV14" s="47"/>
+      <c r="CW14" s="47"/>
+      <c r="CX14" s="47"/>
+      <c r="CY14" s="47"/>
+      <c r="CZ14" s="47"/>
+      <c r="DA14" s="47"/>
+      <c r="DB14" s="47"/>
+      <c r="DC14" s="47"/>
+      <c r="DD14" s="47"/>
+      <c r="DE14" s="47"/>
+      <c r="DF14" s="47"/>
+      <c r="DG14" s="47"/>
+      <c r="DH14" s="47"/>
+      <c r="DI14" s="47"/>
+      <c r="DJ14" s="47"/>
+      <c r="DK14" s="47"/>
+      <c r="DL14" s="47"/>
+      <c r="DM14" s="47"/>
+      <c r="DN14" s="47"/>
+      <c r="DO14" s="47"/>
+      <c r="DP14" s="47"/>
+      <c r="DQ14" s="47"/>
+      <c r="DR14" s="47"/>
+      <c r="DS14" s="47"/>
+      <c r="DT14" s="47"/>
+      <c r="DU14" s="47"/>
+      <c r="DV14" s="47"/>
+      <c r="DW14" s="47"/>
+      <c r="DX14" s="47"/>
+      <c r="DY14" s="47"/>
+      <c r="DZ14" s="47"/>
+      <c r="EA14" s="47"/>
+      <c r="EB14" s="47"/>
+      <c r="EC14" s="47"/>
+      <c r="ED14" s="47"/>
+      <c r="EE14" s="47"/>
+      <c r="EF14" s="47"/>
+      <c r="EG14" s="47"/>
+      <c r="EH14" s="47"/>
+      <c r="EI14" s="47"/>
+      <c r="EJ14" s="47"/>
+      <c r="EK14" s="47"/>
+      <c r="EL14" s="47"/>
+      <c r="EM14" s="47"/>
+      <c r="EN14" s="47"/>
+      <c r="EO14" s="47"/>
+      <c r="EP14" s="47"/>
+      <c r="EQ14" s="47"/>
+      <c r="ER14" s="47"/>
+      <c r="ES14" s="47"/>
+      <c r="ET14" s="47"/>
+      <c r="EU14" s="47"/>
+      <c r="EV14" s="47"/>
+      <c r="EW14" s="47"/>
+      <c r="EX14" s="47"/>
+      <c r="EY14" s="47"/>
+      <c r="EZ14" s="47"/>
+      <c r="FA14" s="47"/>
+      <c r="FB14" s="47"/>
+      <c r="FC14" s="47"/>
+      <c r="FD14" s="47"/>
+      <c r="FE14" s="47"/>
+      <c r="FF14" s="47"/>
+      <c r="FG14" s="47"/>
+      <c r="FH14" s="47"/>
+      <c r="FI14" s="47"/>
+      <c r="FJ14" s="47"/>
+      <c r="FK14" s="47"/>
+      <c r="FL14" s="47"/>
+      <c r="FM14" s="47"/>
+      <c r="FN14" s="47"/>
+      <c r="FO14" s="47"/>
+      <c r="FP14" s="47"/>
+      <c r="FQ14" s="47"/>
+      <c r="FR14" s="47"/>
+      <c r="FS14" s="47"/>
+      <c r="FT14" s="47"/>
+      <c r="FU14" s="47"/>
+      <c r="FV14" s="47"/>
+      <c r="FW14" s="47"/>
+      <c r="FX14" s="47"/>
+      <c r="FY14" s="47"/>
+      <c r="FZ14" s="47"/>
+      <c r="GA14" s="47"/>
+      <c r="GB14" s="47"/>
+      <c r="GC14" s="47"/>
+      <c r="GD14" s="47"/>
+      <c r="GE14" s="47"/>
+      <c r="GF14" s="47"/>
+      <c r="GG14" s="47"/>
+      <c r="GH14" s="47"/>
+      <c r="GI14" s="47"/>
+      <c r="GJ14" s="47"/>
+      <c r="GK14" s="47"/>
+      <c r="GL14" s="47"/>
+      <c r="GM14" s="47"/>
+      <c r="GN14" s="47"/>
+      <c r="GO14" s="47"/>
+      <c r="GP14" s="47"/>
+      <c r="GQ14" s="47"/>
+      <c r="GR14" s="47"/>
+      <c r="GS14" s="47"/>
+      <c r="GT14" s="47"/>
+      <c r="GU14" s="47"/>
+      <c r="GV14" s="47"/>
+      <c r="GW14" s="47"/>
+      <c r="GX14" s="47"/>
+      <c r="GY14" s="47"/>
+      <c r="GZ14" s="47"/>
+      <c r="HA14" s="47"/>
+      <c r="HB14" s="47"/>
+      <c r="HC14" s="47"/>
+      <c r="HD14" s="47"/>
+      <c r="HE14" s="47"/>
+      <c r="HF14" s="47"/>
+      <c r="HG14" s="47"/>
+      <c r="HH14" s="47"/>
+      <c r="HI14" s="47"/>
+      <c r="HJ14" s="47"/>
+      <c r="HK14" s="47"/>
+      <c r="HL14" s="47"/>
+      <c r="HM14" s="47"/>
+      <c r="HN14" s="47"/>
+      <c r="HO14" s="47"/>
+      <c r="HP14" s="47"/>
+      <c r="HQ14" s="47"/>
+      <c r="HR14" s="47"/>
+      <c r="HS14" s="47"/>
+      <c r="HT14" s="47"/>
+      <c r="HU14" s="47"/>
+      <c r="HV14" s="47"/>
+      <c r="HW14" s="47"/>
+      <c r="HX14" s="47"/>
+      <c r="HY14" s="47"/>
+      <c r="HZ14" s="47"/>
+      <c r="IA14" s="47"/>
+      <c r="IB14" s="47"/>
+      <c r="IC14" s="47"/>
+      <c r="ID14" s="47"/>
+      <c r="IE14" s="47"/>
+      <c r="IF14" s="47"/>
+      <c r="IG14" s="47"/>
+      <c r="IH14" s="47"/>
+      <c r="II14" s="47"/>
+      <c r="IJ14" s="47"/>
+      <c r="IK14" s="47"/>
+      <c r="IL14" s="47"/>
+      <c r="IM14" s="47"/>
+      <c r="IN14" s="47"/>
+      <c r="IO14" s="47"/>
+      <c r="IP14" s="47"/>
+      <c r="IQ14" s="47"/>
+      <c r="IR14" s="47"/>
+      <c r="IS14" s="47"/>
+      <c r="IT14" s="47"/>
+      <c r="IU14" s="47"/>
+      <c r="IV14" s="47"/>
+    </row>
+    <row r="15" spans="1:256" ht="25.5">
+      <c r="A15" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="B15" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50"/>
-      <c r="BD14" s="50"/>
-      <c r="BE14" s="50"/>
-      <c r="BF14" s="50"/>
-      <c r="BG14" s="50"/>
-      <c r="BH14" s="50"/>
-      <c r="BI14" s="50"/>
-      <c r="BJ14" s="50"/>
-      <c r="BK14" s="50"/>
-      <c r="BL14" s="50"/>
-      <c r="BM14" s="50"/>
-      <c r="BN14" s="50"/>
-      <c r="BO14" s="50"/>
-      <c r="BP14" s="50"/>
-      <c r="BQ14" s="50"/>
-      <c r="BR14" s="50"/>
-      <c r="BS14" s="50"/>
-      <c r="BT14" s="50"/>
-      <c r="BU14" s="50"/>
-      <c r="BV14" s="50"/>
-      <c r="BW14" s="50"/>
-      <c r="BX14" s="50"/>
-      <c r="BY14" s="50"/>
-      <c r="BZ14" s="50"/>
-      <c r="CA14" s="50"/>
-      <c r="CB14" s="50"/>
-      <c r="CC14" s="50"/>
-      <c r="CD14" s="50"/>
-      <c r="CE14" s="50"/>
-      <c r="CF14" s="50"/>
-      <c r="CG14" s="50"/>
-      <c r="CH14" s="50"/>
-      <c r="CI14" s="50"/>
-      <c r="CJ14" s="50"/>
-      <c r="CK14" s="50"/>
-      <c r="CL14" s="50"/>
-      <c r="CM14" s="50"/>
-      <c r="CN14" s="50"/>
-      <c r="CO14" s="50"/>
-      <c r="CP14" s="50"/>
-      <c r="CQ14" s="50"/>
-      <c r="CR14" s="50"/>
-      <c r="CS14" s="50"/>
-      <c r="CT14" s="50"/>
-      <c r="CU14" s="50"/>
-      <c r="CV14" s="50"/>
-      <c r="CW14" s="50"/>
-      <c r="CX14" s="50"/>
-      <c r="CY14" s="50"/>
-      <c r="CZ14" s="50"/>
-      <c r="DA14" s="50"/>
-      <c r="DB14" s="50"/>
-      <c r="DC14" s="50"/>
-      <c r="DD14" s="50"/>
-      <c r="DE14" s="50"/>
-      <c r="DF14" s="50"/>
-      <c r="DG14" s="50"/>
-      <c r="DH14" s="50"/>
-      <c r="DI14" s="50"/>
-      <c r="DJ14" s="50"/>
-      <c r="DK14" s="50"/>
-      <c r="DL14" s="50"/>
-      <c r="DM14" s="50"/>
-      <c r="DN14" s="50"/>
-      <c r="DO14" s="50"/>
-      <c r="DP14" s="50"/>
-      <c r="DQ14" s="50"/>
-      <c r="DR14" s="50"/>
-      <c r="DS14" s="50"/>
-      <c r="DT14" s="50"/>
-      <c r="DU14" s="50"/>
-      <c r="DV14" s="50"/>
-      <c r="DW14" s="50"/>
-      <c r="DX14" s="50"/>
-      <c r="DY14" s="50"/>
-      <c r="DZ14" s="50"/>
-      <c r="EA14" s="50"/>
-      <c r="EB14" s="50"/>
-      <c r="EC14" s="50"/>
-      <c r="ED14" s="50"/>
-      <c r="EE14" s="50"/>
-      <c r="EF14" s="50"/>
-      <c r="EG14" s="50"/>
-      <c r="EH14" s="50"/>
-      <c r="EI14" s="50"/>
-      <c r="EJ14" s="50"/>
-      <c r="EK14" s="50"/>
-      <c r="EL14" s="50"/>
-      <c r="EM14" s="50"/>
-      <c r="EN14" s="50"/>
-      <c r="EO14" s="50"/>
-      <c r="EP14" s="50"/>
-      <c r="EQ14" s="50"/>
-      <c r="ER14" s="50"/>
-      <c r="ES14" s="50"/>
-      <c r="ET14" s="50"/>
-      <c r="EU14" s="50"/>
-      <c r="EV14" s="50"/>
-      <c r="EW14" s="50"/>
-      <c r="EX14" s="50"/>
-      <c r="EY14" s="50"/>
-      <c r="EZ14" s="50"/>
-      <c r="FA14" s="50"/>
-      <c r="FB14" s="50"/>
-      <c r="FC14" s="50"/>
-      <c r="FD14" s="50"/>
-      <c r="FE14" s="50"/>
-      <c r="FF14" s="50"/>
-      <c r="FG14" s="50"/>
-      <c r="FH14" s="50"/>
-      <c r="FI14" s="50"/>
-      <c r="FJ14" s="50"/>
-      <c r="FK14" s="50"/>
-      <c r="FL14" s="50"/>
-      <c r="FM14" s="50"/>
-      <c r="FN14" s="50"/>
-      <c r="FO14" s="50"/>
-      <c r="FP14" s="50"/>
-      <c r="FQ14" s="50"/>
-      <c r="FR14" s="50"/>
-      <c r="FS14" s="50"/>
-      <c r="FT14" s="50"/>
-      <c r="FU14" s="50"/>
-      <c r="FV14" s="50"/>
-      <c r="FW14" s="50"/>
-      <c r="FX14" s="50"/>
-      <c r="FY14" s="50"/>
-      <c r="FZ14" s="50"/>
-      <c r="GA14" s="50"/>
-      <c r="GB14" s="50"/>
-      <c r="GC14" s="50"/>
-      <c r="GD14" s="50"/>
-      <c r="GE14" s="50"/>
-      <c r="GF14" s="50"/>
-      <c r="GG14" s="50"/>
-      <c r="GH14" s="50"/>
-      <c r="GI14" s="50"/>
-      <c r="GJ14" s="50"/>
-      <c r="GK14" s="50"/>
-      <c r="GL14" s="50"/>
-      <c r="GM14" s="50"/>
-      <c r="GN14" s="50"/>
-      <c r="GO14" s="50"/>
-      <c r="GP14" s="50"/>
-      <c r="GQ14" s="50"/>
-      <c r="GR14" s="50"/>
-      <c r="GS14" s="50"/>
-      <c r="GT14" s="50"/>
-      <c r="GU14" s="50"/>
-      <c r="GV14" s="50"/>
-      <c r="GW14" s="50"/>
-      <c r="GX14" s="50"/>
-      <c r="GY14" s="50"/>
-      <c r="GZ14" s="50"/>
-      <c r="HA14" s="50"/>
-      <c r="HB14" s="50"/>
-      <c r="HC14" s="50"/>
-      <c r="HD14" s="50"/>
-      <c r="HE14" s="50"/>
-      <c r="HF14" s="50"/>
-      <c r="HG14" s="50"/>
-      <c r="HH14" s="50"/>
-      <c r="HI14" s="50"/>
-      <c r="HJ14" s="50"/>
-      <c r="HK14" s="50"/>
-      <c r="HL14" s="50"/>
-      <c r="HM14" s="50"/>
-      <c r="HN14" s="50"/>
-      <c r="HO14" s="50"/>
-      <c r="HP14" s="50"/>
-      <c r="HQ14" s="50"/>
-      <c r="HR14" s="50"/>
-      <c r="HS14" s="50"/>
-      <c r="HT14" s="50"/>
-      <c r="HU14" s="50"/>
-      <c r="HV14" s="50"/>
-      <c r="HW14" s="50"/>
-      <c r="HX14" s="50"/>
-      <c r="HY14" s="50"/>
-      <c r="HZ14" s="50"/>
-      <c r="IA14" s="50"/>
-      <c r="IB14" s="50"/>
-      <c r="IC14" s="50"/>
-      <c r="ID14" s="50"/>
-      <c r="IE14" s="50"/>
-      <c r="IF14" s="50"/>
-      <c r="IG14" s="50"/>
-      <c r="IH14" s="50"/>
-      <c r="II14" s="50"/>
-      <c r="IJ14" s="50"/>
-      <c r="IK14" s="50"/>
-      <c r="IL14" s="50"/>
-      <c r="IM14" s="50"/>
-      <c r="IN14" s="50"/>
-      <c r="IO14" s="50"/>
-      <c r="IP14" s="50"/>
-      <c r="IQ14" s="50"/>
-      <c r="IR14" s="50"/>
-      <c r="IS14" s="50"/>
-      <c r="IT14" s="50"/>
-      <c r="IU14" s="50"/>
-      <c r="IV14" s="50"/>
-    </row>
-    <row r="15" spans="1:256" ht="25.5">
-      <c r="A15" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="50"/>
-      <c r="BE15" s="50"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="50"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="50"/>
-      <c r="BK15" s="50"/>
-      <c r="BL15" s="50"/>
-      <c r="BM15" s="50"/>
-      <c r="BN15" s="50"/>
-      <c r="BO15" s="50"/>
-      <c r="BP15" s="50"/>
-      <c r="BQ15" s="50"/>
-      <c r="BR15" s="50"/>
-      <c r="BS15" s="50"/>
-      <c r="BT15" s="50"/>
-      <c r="BU15" s="50"/>
-      <c r="BV15" s="50"/>
-      <c r="BW15" s="50"/>
-      <c r="BX15" s="50"/>
-      <c r="BY15" s="50"/>
-      <c r="BZ15" s="50"/>
-      <c r="CA15" s="50"/>
-      <c r="CB15" s="50"/>
-      <c r="CC15" s="50"/>
-      <c r="CD15" s="50"/>
-      <c r="CE15" s="50"/>
-      <c r="CF15" s="50"/>
-      <c r="CG15" s="50"/>
-      <c r="CH15" s="50"/>
-      <c r="CI15" s="50"/>
-      <c r="CJ15" s="50"/>
-      <c r="CK15" s="50"/>
-      <c r="CL15" s="50"/>
-      <c r="CM15" s="50"/>
-      <c r="CN15" s="50"/>
-      <c r="CO15" s="50"/>
-      <c r="CP15" s="50"/>
-      <c r="CQ15" s="50"/>
-      <c r="CR15" s="50"/>
-      <c r="CS15" s="50"/>
-      <c r="CT15" s="50"/>
-      <c r="CU15" s="50"/>
-      <c r="CV15" s="50"/>
-      <c r="CW15" s="50"/>
-      <c r="CX15" s="50"/>
-      <c r="CY15" s="50"/>
-      <c r="CZ15" s="50"/>
-      <c r="DA15" s="50"/>
-      <c r="DB15" s="50"/>
-      <c r="DC15" s="50"/>
-      <c r="DD15" s="50"/>
-      <c r="DE15" s="50"/>
-      <c r="DF15" s="50"/>
-      <c r="DG15" s="50"/>
-      <c r="DH15" s="50"/>
-      <c r="DI15" s="50"/>
-      <c r="DJ15" s="50"/>
-      <c r="DK15" s="50"/>
-      <c r="DL15" s="50"/>
-      <c r="DM15" s="50"/>
-      <c r="DN15" s="50"/>
-      <c r="DO15" s="50"/>
-      <c r="DP15" s="50"/>
-      <c r="DQ15" s="50"/>
-      <c r="DR15" s="50"/>
-      <c r="DS15" s="50"/>
-      <c r="DT15" s="50"/>
-      <c r="DU15" s="50"/>
-      <c r="DV15" s="50"/>
-      <c r="DW15" s="50"/>
-      <c r="DX15" s="50"/>
-      <c r="DY15" s="50"/>
-      <c r="DZ15" s="50"/>
-      <c r="EA15" s="50"/>
-      <c r="EB15" s="50"/>
-      <c r="EC15" s="50"/>
-      <c r="ED15" s="50"/>
-      <c r="EE15" s="50"/>
-      <c r="EF15" s="50"/>
-      <c r="EG15" s="50"/>
-      <c r="EH15" s="50"/>
-      <c r="EI15" s="50"/>
-      <c r="EJ15" s="50"/>
-      <c r="EK15" s="50"/>
-      <c r="EL15" s="50"/>
-      <c r="EM15" s="50"/>
-      <c r="EN15" s="50"/>
-      <c r="EO15" s="50"/>
-      <c r="EP15" s="50"/>
-      <c r="EQ15" s="50"/>
-      <c r="ER15" s="50"/>
-      <c r="ES15" s="50"/>
-      <c r="ET15" s="50"/>
-      <c r="EU15" s="50"/>
-      <c r="EV15" s="50"/>
-      <c r="EW15" s="50"/>
-      <c r="EX15" s="50"/>
-      <c r="EY15" s="50"/>
-      <c r="EZ15" s="50"/>
-      <c r="FA15" s="50"/>
-      <c r="FB15" s="50"/>
-      <c r="FC15" s="50"/>
-      <c r="FD15" s="50"/>
-      <c r="FE15" s="50"/>
-      <c r="FF15" s="50"/>
-      <c r="FG15" s="50"/>
-      <c r="FH15" s="50"/>
-      <c r="FI15" s="50"/>
-      <c r="FJ15" s="50"/>
-      <c r="FK15" s="50"/>
-      <c r="FL15" s="50"/>
-      <c r="FM15" s="50"/>
-      <c r="FN15" s="50"/>
-      <c r="FO15" s="50"/>
-      <c r="FP15" s="50"/>
-      <c r="FQ15" s="50"/>
-      <c r="FR15" s="50"/>
-      <c r="FS15" s="50"/>
-      <c r="FT15" s="50"/>
-      <c r="FU15" s="50"/>
-      <c r="FV15" s="50"/>
-      <c r="FW15" s="50"/>
-      <c r="FX15" s="50"/>
-      <c r="FY15" s="50"/>
-      <c r="FZ15" s="50"/>
-      <c r="GA15" s="50"/>
-      <c r="GB15" s="50"/>
-      <c r="GC15" s="50"/>
-      <c r="GD15" s="50"/>
-      <c r="GE15" s="50"/>
-      <c r="GF15" s="50"/>
-      <c r="GG15" s="50"/>
-      <c r="GH15" s="50"/>
-      <c r="GI15" s="50"/>
-      <c r="GJ15" s="50"/>
-      <c r="GK15" s="50"/>
-      <c r="GL15" s="50"/>
-      <c r="GM15" s="50"/>
-      <c r="GN15" s="50"/>
-      <c r="GO15" s="50"/>
-      <c r="GP15" s="50"/>
-      <c r="GQ15" s="50"/>
-      <c r="GR15" s="50"/>
-      <c r="GS15" s="50"/>
-      <c r="GT15" s="50"/>
-      <c r="GU15" s="50"/>
-      <c r="GV15" s="50"/>
-      <c r="GW15" s="50"/>
-      <c r="GX15" s="50"/>
-      <c r="GY15" s="50"/>
-      <c r="GZ15" s="50"/>
-      <c r="HA15" s="50"/>
-      <c r="HB15" s="50"/>
-      <c r="HC15" s="50"/>
-      <c r="HD15" s="50"/>
-      <c r="HE15" s="50"/>
-      <c r="HF15" s="50"/>
-      <c r="HG15" s="50"/>
-      <c r="HH15" s="50"/>
-      <c r="HI15" s="50"/>
-      <c r="HJ15" s="50"/>
-      <c r="HK15" s="50"/>
-      <c r="HL15" s="50"/>
-      <c r="HM15" s="50"/>
-      <c r="HN15" s="50"/>
-      <c r="HO15" s="50"/>
-      <c r="HP15" s="50"/>
-      <c r="HQ15" s="50"/>
-      <c r="HR15" s="50"/>
-      <c r="HS15" s="50"/>
-      <c r="HT15" s="50"/>
-      <c r="HU15" s="50"/>
-      <c r="HV15" s="50"/>
-      <c r="HW15" s="50"/>
-      <c r="HX15" s="50"/>
-      <c r="HY15" s="50"/>
-      <c r="HZ15" s="50"/>
-      <c r="IA15" s="50"/>
-      <c r="IB15" s="50"/>
-      <c r="IC15" s="50"/>
-      <c r="ID15" s="50"/>
-      <c r="IE15" s="50"/>
-      <c r="IF15" s="50"/>
-      <c r="IG15" s="50"/>
-      <c r="IH15" s="50"/>
-      <c r="II15" s="50"/>
-      <c r="IJ15" s="50"/>
-      <c r="IK15" s="50"/>
-      <c r="IL15" s="50"/>
-      <c r="IM15" s="50"/>
-      <c r="IN15" s="50"/>
-      <c r="IO15" s="50"/>
-      <c r="IP15" s="50"/>
-      <c r="IQ15" s="50"/>
-      <c r="IR15" s="50"/>
-      <c r="IS15" s="50"/>
-      <c r="IT15" s="50"/>
-      <c r="IU15" s="50"/>
-      <c r="IV15" s="50"/>
+      <c r="F15" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="47"/>
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="47"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="47"/>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="47"/>
+      <c r="BE15" s="47"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="47"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="47"/>
+      <c r="BJ15" s="47"/>
+      <c r="BK15" s="47"/>
+      <c r="BL15" s="47"/>
+      <c r="BM15" s="47"/>
+      <c r="BN15" s="47"/>
+      <c r="BO15" s="47"/>
+      <c r="BP15" s="47"/>
+      <c r="BQ15" s="47"/>
+      <c r="BR15" s="47"/>
+      <c r="BS15" s="47"/>
+      <c r="BT15" s="47"/>
+      <c r="BU15" s="47"/>
+      <c r="BV15" s="47"/>
+      <c r="BW15" s="47"/>
+      <c r="BX15" s="47"/>
+      <c r="BY15" s="47"/>
+      <c r="BZ15" s="47"/>
+      <c r="CA15" s="47"/>
+      <c r="CB15" s="47"/>
+      <c r="CC15" s="47"/>
+      <c r="CD15" s="47"/>
+      <c r="CE15" s="47"/>
+      <c r="CF15" s="47"/>
+      <c r="CG15" s="47"/>
+      <c r="CH15" s="47"/>
+      <c r="CI15" s="47"/>
+      <c r="CJ15" s="47"/>
+      <c r="CK15" s="47"/>
+      <c r="CL15" s="47"/>
+      <c r="CM15" s="47"/>
+      <c r="CN15" s="47"/>
+      <c r="CO15" s="47"/>
+      <c r="CP15" s="47"/>
+      <c r="CQ15" s="47"/>
+      <c r="CR15" s="47"/>
+      <c r="CS15" s="47"/>
+      <c r="CT15" s="47"/>
+      <c r="CU15" s="47"/>
+      <c r="CV15" s="47"/>
+      <c r="CW15" s="47"/>
+      <c r="CX15" s="47"/>
+      <c r="CY15" s="47"/>
+      <c r="CZ15" s="47"/>
+      <c r="DA15" s="47"/>
+      <c r="DB15" s="47"/>
+      <c r="DC15" s="47"/>
+      <c r="DD15" s="47"/>
+      <c r="DE15" s="47"/>
+      <c r="DF15" s="47"/>
+      <c r="DG15" s="47"/>
+      <c r="DH15" s="47"/>
+      <c r="DI15" s="47"/>
+      <c r="DJ15" s="47"/>
+      <c r="DK15" s="47"/>
+      <c r="DL15" s="47"/>
+      <c r="DM15" s="47"/>
+      <c r="DN15" s="47"/>
+      <c r="DO15" s="47"/>
+      <c r="DP15" s="47"/>
+      <c r="DQ15" s="47"/>
+      <c r="DR15" s="47"/>
+      <c r="DS15" s="47"/>
+      <c r="DT15" s="47"/>
+      <c r="DU15" s="47"/>
+      <c r="DV15" s="47"/>
+      <c r="DW15" s="47"/>
+      <c r="DX15" s="47"/>
+      <c r="DY15" s="47"/>
+      <c r="DZ15" s="47"/>
+      <c r="EA15" s="47"/>
+      <c r="EB15" s="47"/>
+      <c r="EC15" s="47"/>
+      <c r="ED15" s="47"/>
+      <c r="EE15" s="47"/>
+      <c r="EF15" s="47"/>
+      <c r="EG15" s="47"/>
+      <c r="EH15" s="47"/>
+      <c r="EI15" s="47"/>
+      <c r="EJ15" s="47"/>
+      <c r="EK15" s="47"/>
+      <c r="EL15" s="47"/>
+      <c r="EM15" s="47"/>
+      <c r="EN15" s="47"/>
+      <c r="EO15" s="47"/>
+      <c r="EP15" s="47"/>
+      <c r="EQ15" s="47"/>
+      <c r="ER15" s="47"/>
+      <c r="ES15" s="47"/>
+      <c r="ET15" s="47"/>
+      <c r="EU15" s="47"/>
+      <c r="EV15" s="47"/>
+      <c r="EW15" s="47"/>
+      <c r="EX15" s="47"/>
+      <c r="EY15" s="47"/>
+      <c r="EZ15" s="47"/>
+      <c r="FA15" s="47"/>
+      <c r="FB15" s="47"/>
+      <c r="FC15" s="47"/>
+      <c r="FD15" s="47"/>
+      <c r="FE15" s="47"/>
+      <c r="FF15" s="47"/>
+      <c r="FG15" s="47"/>
+      <c r="FH15" s="47"/>
+      <c r="FI15" s="47"/>
+      <c r="FJ15" s="47"/>
+      <c r="FK15" s="47"/>
+      <c r="FL15" s="47"/>
+      <c r="FM15" s="47"/>
+      <c r="FN15" s="47"/>
+      <c r="FO15" s="47"/>
+      <c r="FP15" s="47"/>
+      <c r="FQ15" s="47"/>
+      <c r="FR15" s="47"/>
+      <c r="FS15" s="47"/>
+      <c r="FT15" s="47"/>
+      <c r="FU15" s="47"/>
+      <c r="FV15" s="47"/>
+      <c r="FW15" s="47"/>
+      <c r="FX15" s="47"/>
+      <c r="FY15" s="47"/>
+      <c r="FZ15" s="47"/>
+      <c r="GA15" s="47"/>
+      <c r="GB15" s="47"/>
+      <c r="GC15" s="47"/>
+      <c r="GD15" s="47"/>
+      <c r="GE15" s="47"/>
+      <c r="GF15" s="47"/>
+      <c r="GG15" s="47"/>
+      <c r="GH15" s="47"/>
+      <c r="GI15" s="47"/>
+      <c r="GJ15" s="47"/>
+      <c r="GK15" s="47"/>
+      <c r="GL15" s="47"/>
+      <c r="GM15" s="47"/>
+      <c r="GN15" s="47"/>
+      <c r="GO15" s="47"/>
+      <c r="GP15" s="47"/>
+      <c r="GQ15" s="47"/>
+      <c r="GR15" s="47"/>
+      <c r="GS15" s="47"/>
+      <c r="GT15" s="47"/>
+      <c r="GU15" s="47"/>
+      <c r="GV15" s="47"/>
+      <c r="GW15" s="47"/>
+      <c r="GX15" s="47"/>
+      <c r="GY15" s="47"/>
+      <c r="GZ15" s="47"/>
+      <c r="HA15" s="47"/>
+      <c r="HB15" s="47"/>
+      <c r="HC15" s="47"/>
+      <c r="HD15" s="47"/>
+      <c r="HE15" s="47"/>
+      <c r="HF15" s="47"/>
+      <c r="HG15" s="47"/>
+      <c r="HH15" s="47"/>
+      <c r="HI15" s="47"/>
+      <c r="HJ15" s="47"/>
+      <c r="HK15" s="47"/>
+      <c r="HL15" s="47"/>
+      <c r="HM15" s="47"/>
+      <c r="HN15" s="47"/>
+      <c r="HO15" s="47"/>
+      <c r="HP15" s="47"/>
+      <c r="HQ15" s="47"/>
+      <c r="HR15" s="47"/>
+      <c r="HS15" s="47"/>
+      <c r="HT15" s="47"/>
+      <c r="HU15" s="47"/>
+      <c r="HV15" s="47"/>
+      <c r="HW15" s="47"/>
+      <c r="HX15" s="47"/>
+      <c r="HY15" s="47"/>
+      <c r="HZ15" s="47"/>
+      <c r="IA15" s="47"/>
+      <c r="IB15" s="47"/>
+      <c r="IC15" s="47"/>
+      <c r="ID15" s="47"/>
+      <c r="IE15" s="47"/>
+      <c r="IF15" s="47"/>
+      <c r="IG15" s="47"/>
+      <c r="IH15" s="47"/>
+      <c r="II15" s="47"/>
+      <c r="IJ15" s="47"/>
+      <c r="IK15" s="47"/>
+      <c r="IL15" s="47"/>
+      <c r="IM15" s="47"/>
+      <c r="IN15" s="47"/>
+      <c r="IO15" s="47"/>
+      <c r="IP15" s="47"/>
+      <c r="IQ15" s="47"/>
+      <c r="IR15" s="47"/>
+      <c r="IS15" s="47"/>
+      <c r="IT15" s="47"/>
+      <c r="IU15" s="47"/>
+      <c r="IV15" s="47"/>
     </row>
     <row r="16" spans="1:256" ht="51">
-      <c r="A16" s="69" t="s">
-        <v>217</v>
+      <c r="A16" s="66" t="s">
+        <v>214</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>71</v>
@@ -5580,551 +5872,551 @@
       <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="69" t="s">
+      <c r="D16" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
+      <c r="BA16" s="47"/>
+      <c r="BB16" s="47"/>
+      <c r="BC16" s="47"/>
+      <c r="BD16" s="47"/>
+      <c r="BE16" s="47"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="47"/>
+      <c r="BH16" s="47"/>
+      <c r="BI16" s="47"/>
+      <c r="BJ16" s="47"/>
+      <c r="BK16" s="47"/>
+      <c r="BL16" s="47"/>
+      <c r="BM16" s="47"/>
+      <c r="BN16" s="47"/>
+      <c r="BO16" s="47"/>
+      <c r="BP16" s="47"/>
+      <c r="BQ16" s="47"/>
+      <c r="BR16" s="47"/>
+      <c r="BS16" s="47"/>
+      <c r="BT16" s="47"/>
+      <c r="BU16" s="47"/>
+      <c r="BV16" s="47"/>
+      <c r="BW16" s="47"/>
+      <c r="BX16" s="47"/>
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="47"/>
+      <c r="CA16" s="47"/>
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="47"/>
+      <c r="CK16" s="47"/>
+      <c r="CL16" s="47"/>
+      <c r="CM16" s="47"/>
+      <c r="CN16" s="47"/>
+      <c r="CO16" s="47"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="47"/>
+      <c r="CS16" s="47"/>
+      <c r="CT16" s="47"/>
+      <c r="CU16" s="47"/>
+      <c r="CV16" s="47"/>
+      <c r="CW16" s="47"/>
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
+      <c r="DA16" s="47"/>
+      <c r="DB16" s="47"/>
+      <c r="DC16" s="47"/>
+      <c r="DD16" s="47"/>
+      <c r="DE16" s="47"/>
+      <c r="DF16" s="47"/>
+      <c r="DG16" s="47"/>
+      <c r="DH16" s="47"/>
+      <c r="DI16" s="47"/>
+      <c r="DJ16" s="47"/>
+      <c r="DK16" s="47"/>
+      <c r="DL16" s="47"/>
+      <c r="DM16" s="47"/>
+      <c r="DN16" s="47"/>
+      <c r="DO16" s="47"/>
+      <c r="DP16" s="47"/>
+      <c r="DQ16" s="47"/>
+      <c r="DR16" s="47"/>
+      <c r="DS16" s="47"/>
+      <c r="DT16" s="47"/>
+      <c r="DU16" s="47"/>
+      <c r="DV16" s="47"/>
+      <c r="DW16" s="47"/>
+      <c r="DX16" s="47"/>
+      <c r="DY16" s="47"/>
+      <c r="DZ16" s="47"/>
+      <c r="EA16" s="47"/>
+      <c r="EB16" s="47"/>
+      <c r="EC16" s="47"/>
+      <c r="ED16" s="47"/>
+      <c r="EE16" s="47"/>
+      <c r="EF16" s="47"/>
+      <c r="EG16" s="47"/>
+      <c r="EH16" s="47"/>
+      <c r="EI16" s="47"/>
+      <c r="EJ16" s="47"/>
+      <c r="EK16" s="47"/>
+      <c r="EL16" s="47"/>
+      <c r="EM16" s="47"/>
+      <c r="EN16" s="47"/>
+      <c r="EO16" s="47"/>
+      <c r="EP16" s="47"/>
+      <c r="EQ16" s="47"/>
+      <c r="ER16" s="47"/>
+      <c r="ES16" s="47"/>
+      <c r="ET16" s="47"/>
+      <c r="EU16" s="47"/>
+      <c r="EV16" s="47"/>
+      <c r="EW16" s="47"/>
+      <c r="EX16" s="47"/>
+      <c r="EY16" s="47"/>
+      <c r="EZ16" s="47"/>
+      <c r="FA16" s="47"/>
+      <c r="FB16" s="47"/>
+      <c r="FC16" s="47"/>
+      <c r="FD16" s="47"/>
+      <c r="FE16" s="47"/>
+      <c r="FF16" s="47"/>
+      <c r="FG16" s="47"/>
+      <c r="FH16" s="47"/>
+      <c r="FI16" s="47"/>
+      <c r="FJ16" s="47"/>
+      <c r="FK16" s="47"/>
+      <c r="FL16" s="47"/>
+      <c r="FM16" s="47"/>
+      <c r="FN16" s="47"/>
+      <c r="FO16" s="47"/>
+      <c r="FP16" s="47"/>
+      <c r="FQ16" s="47"/>
+      <c r="FR16" s="47"/>
+      <c r="FS16" s="47"/>
+      <c r="FT16" s="47"/>
+      <c r="FU16" s="47"/>
+      <c r="FV16" s="47"/>
+      <c r="FW16" s="47"/>
+      <c r="FX16" s="47"/>
+      <c r="FY16" s="47"/>
+      <c r="FZ16" s="47"/>
+      <c r="GA16" s="47"/>
+      <c r="GB16" s="47"/>
+      <c r="GC16" s="47"/>
+      <c r="GD16" s="47"/>
+      <c r="GE16" s="47"/>
+      <c r="GF16" s="47"/>
+      <c r="GG16" s="47"/>
+      <c r="GH16" s="47"/>
+      <c r="GI16" s="47"/>
+      <c r="GJ16" s="47"/>
+      <c r="GK16" s="47"/>
+      <c r="GL16" s="47"/>
+      <c r="GM16" s="47"/>
+      <c r="GN16" s="47"/>
+      <c r="GO16" s="47"/>
+      <c r="GP16" s="47"/>
+      <c r="GQ16" s="47"/>
+      <c r="GR16" s="47"/>
+      <c r="GS16" s="47"/>
+      <c r="GT16" s="47"/>
+      <c r="GU16" s="47"/>
+      <c r="GV16" s="47"/>
+      <c r="GW16" s="47"/>
+      <c r="GX16" s="47"/>
+      <c r="GY16" s="47"/>
+      <c r="GZ16" s="47"/>
+      <c r="HA16" s="47"/>
+      <c r="HB16" s="47"/>
+      <c r="HC16" s="47"/>
+      <c r="HD16" s="47"/>
+      <c r="HE16" s="47"/>
+      <c r="HF16" s="47"/>
+      <c r="HG16" s="47"/>
+      <c r="HH16" s="47"/>
+      <c r="HI16" s="47"/>
+      <c r="HJ16" s="47"/>
+      <c r="HK16" s="47"/>
+      <c r="HL16" s="47"/>
+      <c r="HM16" s="47"/>
+      <c r="HN16" s="47"/>
+      <c r="HO16" s="47"/>
+      <c r="HP16" s="47"/>
+      <c r="HQ16" s="47"/>
+      <c r="HR16" s="47"/>
+      <c r="HS16" s="47"/>
+      <c r="HT16" s="47"/>
+      <c r="HU16" s="47"/>
+      <c r="HV16" s="47"/>
+      <c r="HW16" s="47"/>
+      <c r="HX16" s="47"/>
+      <c r="HY16" s="47"/>
+      <c r="HZ16" s="47"/>
+      <c r="IA16" s="47"/>
+      <c r="IB16" s="47"/>
+      <c r="IC16" s="47"/>
+      <c r="ID16" s="47"/>
+      <c r="IE16" s="47"/>
+      <c r="IF16" s="47"/>
+      <c r="IG16" s="47"/>
+      <c r="IH16" s="47"/>
+      <c r="II16" s="47"/>
+      <c r="IJ16" s="47"/>
+      <c r="IK16" s="47"/>
+      <c r="IL16" s="47"/>
+      <c r="IM16" s="47"/>
+      <c r="IN16" s="47"/>
+      <c r="IO16" s="47"/>
+      <c r="IP16" s="47"/>
+      <c r="IQ16" s="47"/>
+      <c r="IR16" s="47"/>
+      <c r="IS16" s="47"/>
+      <c r="IT16" s="47"/>
+      <c r="IU16" s="47"/>
+      <c r="IV16" s="47"/>
+    </row>
+    <row r="17" spans="1:256" ht="25.5">
+      <c r="A17" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="50"/>
-      <c r="BK16" s="50"/>
-      <c r="BL16" s="50"/>
-      <c r="BM16" s="50"/>
-      <c r="BN16" s="50"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="50"/>
-      <c r="BQ16" s="50"/>
-      <c r="BR16" s="50"/>
-      <c r="BS16" s="50"/>
-      <c r="BT16" s="50"/>
-      <c r="BU16" s="50"/>
-      <c r="BV16" s="50"/>
-      <c r="BW16" s="50"/>
-      <c r="BX16" s="50"/>
-      <c r="BY16" s="50"/>
-      <c r="BZ16" s="50"/>
-      <c r="CA16" s="50"/>
-      <c r="CB16" s="50"/>
-      <c r="CC16" s="50"/>
-      <c r="CD16" s="50"/>
-      <c r="CE16" s="50"/>
-      <c r="CF16" s="50"/>
-      <c r="CG16" s="50"/>
-      <c r="CH16" s="50"/>
-      <c r="CI16" s="50"/>
-      <c r="CJ16" s="50"/>
-      <c r="CK16" s="50"/>
-      <c r="CL16" s="50"/>
-      <c r="CM16" s="50"/>
-      <c r="CN16" s="50"/>
-      <c r="CO16" s="50"/>
-      <c r="CP16" s="50"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="50"/>
-      <c r="CS16" s="50"/>
-      <c r="CT16" s="50"/>
-      <c r="CU16" s="50"/>
-      <c r="CV16" s="50"/>
-      <c r="CW16" s="50"/>
-      <c r="CX16" s="50"/>
-      <c r="CY16" s="50"/>
-      <c r="CZ16" s="50"/>
-      <c r="DA16" s="50"/>
-      <c r="DB16" s="50"/>
-      <c r="DC16" s="50"/>
-      <c r="DD16" s="50"/>
-      <c r="DE16" s="50"/>
-      <c r="DF16" s="50"/>
-      <c r="DG16" s="50"/>
-      <c r="DH16" s="50"/>
-      <c r="DI16" s="50"/>
-      <c r="DJ16" s="50"/>
-      <c r="DK16" s="50"/>
-      <c r="DL16" s="50"/>
-      <c r="DM16" s="50"/>
-      <c r="DN16" s="50"/>
-      <c r="DO16" s="50"/>
-      <c r="DP16" s="50"/>
-      <c r="DQ16" s="50"/>
-      <c r="DR16" s="50"/>
-      <c r="DS16" s="50"/>
-      <c r="DT16" s="50"/>
-      <c r="DU16" s="50"/>
-      <c r="DV16" s="50"/>
-      <c r="DW16" s="50"/>
-      <c r="DX16" s="50"/>
-      <c r="DY16" s="50"/>
-      <c r="DZ16" s="50"/>
-      <c r="EA16" s="50"/>
-      <c r="EB16" s="50"/>
-      <c r="EC16" s="50"/>
-      <c r="ED16" s="50"/>
-      <c r="EE16" s="50"/>
-      <c r="EF16" s="50"/>
-      <c r="EG16" s="50"/>
-      <c r="EH16" s="50"/>
-      <c r="EI16" s="50"/>
-      <c r="EJ16" s="50"/>
-      <c r="EK16" s="50"/>
-      <c r="EL16" s="50"/>
-      <c r="EM16" s="50"/>
-      <c r="EN16" s="50"/>
-      <c r="EO16" s="50"/>
-      <c r="EP16" s="50"/>
-      <c r="EQ16" s="50"/>
-      <c r="ER16" s="50"/>
-      <c r="ES16" s="50"/>
-      <c r="ET16" s="50"/>
-      <c r="EU16" s="50"/>
-      <c r="EV16" s="50"/>
-      <c r="EW16" s="50"/>
-      <c r="EX16" s="50"/>
-      <c r="EY16" s="50"/>
-      <c r="EZ16" s="50"/>
-      <c r="FA16" s="50"/>
-      <c r="FB16" s="50"/>
-      <c r="FC16" s="50"/>
-      <c r="FD16" s="50"/>
-      <c r="FE16" s="50"/>
-      <c r="FF16" s="50"/>
-      <c r="FG16" s="50"/>
-      <c r="FH16" s="50"/>
-      <c r="FI16" s="50"/>
-      <c r="FJ16" s="50"/>
-      <c r="FK16" s="50"/>
-      <c r="FL16" s="50"/>
-      <c r="FM16" s="50"/>
-      <c r="FN16" s="50"/>
-      <c r="FO16" s="50"/>
-      <c r="FP16" s="50"/>
-      <c r="FQ16" s="50"/>
-      <c r="FR16" s="50"/>
-      <c r="FS16" s="50"/>
-      <c r="FT16" s="50"/>
-      <c r="FU16" s="50"/>
-      <c r="FV16" s="50"/>
-      <c r="FW16" s="50"/>
-      <c r="FX16" s="50"/>
-      <c r="FY16" s="50"/>
-      <c r="FZ16" s="50"/>
-      <c r="GA16" s="50"/>
-      <c r="GB16" s="50"/>
-      <c r="GC16" s="50"/>
-      <c r="GD16" s="50"/>
-      <c r="GE16" s="50"/>
-      <c r="GF16" s="50"/>
-      <c r="GG16" s="50"/>
-      <c r="GH16" s="50"/>
-      <c r="GI16" s="50"/>
-      <c r="GJ16" s="50"/>
-      <c r="GK16" s="50"/>
-      <c r="GL16" s="50"/>
-      <c r="GM16" s="50"/>
-      <c r="GN16" s="50"/>
-      <c r="GO16" s="50"/>
-      <c r="GP16" s="50"/>
-      <c r="GQ16" s="50"/>
-      <c r="GR16" s="50"/>
-      <c r="GS16" s="50"/>
-      <c r="GT16" s="50"/>
-      <c r="GU16" s="50"/>
-      <c r="GV16" s="50"/>
-      <c r="GW16" s="50"/>
-      <c r="GX16" s="50"/>
-      <c r="GY16" s="50"/>
-      <c r="GZ16" s="50"/>
-      <c r="HA16" s="50"/>
-      <c r="HB16" s="50"/>
-      <c r="HC16" s="50"/>
-      <c r="HD16" s="50"/>
-      <c r="HE16" s="50"/>
-      <c r="HF16" s="50"/>
-      <c r="HG16" s="50"/>
-      <c r="HH16" s="50"/>
-      <c r="HI16" s="50"/>
-      <c r="HJ16" s="50"/>
-      <c r="HK16" s="50"/>
-      <c r="HL16" s="50"/>
-      <c r="HM16" s="50"/>
-      <c r="HN16" s="50"/>
-      <c r="HO16" s="50"/>
-      <c r="HP16" s="50"/>
-      <c r="HQ16" s="50"/>
-      <c r="HR16" s="50"/>
-      <c r="HS16" s="50"/>
-      <c r="HT16" s="50"/>
-      <c r="HU16" s="50"/>
-      <c r="HV16" s="50"/>
-      <c r="HW16" s="50"/>
-      <c r="HX16" s="50"/>
-      <c r="HY16" s="50"/>
-      <c r="HZ16" s="50"/>
-      <c r="IA16" s="50"/>
-      <c r="IB16" s="50"/>
-      <c r="IC16" s="50"/>
-      <c r="ID16" s="50"/>
-      <c r="IE16" s="50"/>
-      <c r="IF16" s="50"/>
-      <c r="IG16" s="50"/>
-      <c r="IH16" s="50"/>
-      <c r="II16" s="50"/>
-      <c r="IJ16" s="50"/>
-      <c r="IK16" s="50"/>
-      <c r="IL16" s="50"/>
-      <c r="IM16" s="50"/>
-      <c r="IN16" s="50"/>
-      <c r="IO16" s="50"/>
-      <c r="IP16" s="50"/>
-      <c r="IQ16" s="50"/>
-      <c r="IR16" s="50"/>
-      <c r="IS16" s="50"/>
-      <c r="IT16" s="50"/>
-      <c r="IU16" s="50"/>
-      <c r="IV16" s="50"/>
-    </row>
-    <row r="17" spans="1:256" ht="25.5">
-      <c r="A17" s="69" t="s">
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="50"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="50"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="50"/>
-      <c r="BD17" s="50"/>
-      <c r="BE17" s="50"/>
-      <c r="BF17" s="50"/>
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="50"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="50"/>
-      <c r="BK17" s="50"/>
-      <c r="BL17" s="50"/>
-      <c r="BM17" s="50"/>
-      <c r="BN17" s="50"/>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="50"/>
-      <c r="BQ17" s="50"/>
-      <c r="BR17" s="50"/>
-      <c r="BS17" s="50"/>
-      <c r="BT17" s="50"/>
-      <c r="BU17" s="50"/>
-      <c r="BV17" s="50"/>
-      <c r="BW17" s="50"/>
-      <c r="BX17" s="50"/>
-      <c r="BY17" s="50"/>
-      <c r="BZ17" s="50"/>
-      <c r="CA17" s="50"/>
-      <c r="CB17" s="50"/>
-      <c r="CC17" s="50"/>
-      <c r="CD17" s="50"/>
-      <c r="CE17" s="50"/>
-      <c r="CF17" s="50"/>
-      <c r="CG17" s="50"/>
-      <c r="CH17" s="50"/>
-      <c r="CI17" s="50"/>
-      <c r="CJ17" s="50"/>
-      <c r="CK17" s="50"/>
-      <c r="CL17" s="50"/>
-      <c r="CM17" s="50"/>
-      <c r="CN17" s="50"/>
-      <c r="CO17" s="50"/>
-      <c r="CP17" s="50"/>
-      <c r="CQ17" s="50"/>
-      <c r="CR17" s="50"/>
-      <c r="CS17" s="50"/>
-      <c r="CT17" s="50"/>
-      <c r="CU17" s="50"/>
-      <c r="CV17" s="50"/>
-      <c r="CW17" s="50"/>
-      <c r="CX17" s="50"/>
-      <c r="CY17" s="50"/>
-      <c r="CZ17" s="50"/>
-      <c r="DA17" s="50"/>
-      <c r="DB17" s="50"/>
-      <c r="DC17" s="50"/>
-      <c r="DD17" s="50"/>
-      <c r="DE17" s="50"/>
-      <c r="DF17" s="50"/>
-      <c r="DG17" s="50"/>
-      <c r="DH17" s="50"/>
-      <c r="DI17" s="50"/>
-      <c r="DJ17" s="50"/>
-      <c r="DK17" s="50"/>
-      <c r="DL17" s="50"/>
-      <c r="DM17" s="50"/>
-      <c r="DN17" s="50"/>
-      <c r="DO17" s="50"/>
-      <c r="DP17" s="50"/>
-      <c r="DQ17" s="50"/>
-      <c r="DR17" s="50"/>
-      <c r="DS17" s="50"/>
-      <c r="DT17" s="50"/>
-      <c r="DU17" s="50"/>
-      <c r="DV17" s="50"/>
-      <c r="DW17" s="50"/>
-      <c r="DX17" s="50"/>
-      <c r="DY17" s="50"/>
-      <c r="DZ17" s="50"/>
-      <c r="EA17" s="50"/>
-      <c r="EB17" s="50"/>
-      <c r="EC17" s="50"/>
-      <c r="ED17" s="50"/>
-      <c r="EE17" s="50"/>
-      <c r="EF17" s="50"/>
-      <c r="EG17" s="50"/>
-      <c r="EH17" s="50"/>
-      <c r="EI17" s="50"/>
-      <c r="EJ17" s="50"/>
-      <c r="EK17" s="50"/>
-      <c r="EL17" s="50"/>
-      <c r="EM17" s="50"/>
-      <c r="EN17" s="50"/>
-      <c r="EO17" s="50"/>
-      <c r="EP17" s="50"/>
-      <c r="EQ17" s="50"/>
-      <c r="ER17" s="50"/>
-      <c r="ES17" s="50"/>
-      <c r="ET17" s="50"/>
-      <c r="EU17" s="50"/>
-      <c r="EV17" s="50"/>
-      <c r="EW17" s="50"/>
-      <c r="EX17" s="50"/>
-      <c r="EY17" s="50"/>
-      <c r="EZ17" s="50"/>
-      <c r="FA17" s="50"/>
-      <c r="FB17" s="50"/>
-      <c r="FC17" s="50"/>
-      <c r="FD17" s="50"/>
-      <c r="FE17" s="50"/>
-      <c r="FF17" s="50"/>
-      <c r="FG17" s="50"/>
-      <c r="FH17" s="50"/>
-      <c r="FI17" s="50"/>
-      <c r="FJ17" s="50"/>
-      <c r="FK17" s="50"/>
-      <c r="FL17" s="50"/>
-      <c r="FM17" s="50"/>
-      <c r="FN17" s="50"/>
-      <c r="FO17" s="50"/>
-      <c r="FP17" s="50"/>
-      <c r="FQ17" s="50"/>
-      <c r="FR17" s="50"/>
-      <c r="FS17" s="50"/>
-      <c r="FT17" s="50"/>
-      <c r="FU17" s="50"/>
-      <c r="FV17" s="50"/>
-      <c r="FW17" s="50"/>
-      <c r="FX17" s="50"/>
-      <c r="FY17" s="50"/>
-      <c r="FZ17" s="50"/>
-      <c r="GA17" s="50"/>
-      <c r="GB17" s="50"/>
-      <c r="GC17" s="50"/>
-      <c r="GD17" s="50"/>
-      <c r="GE17" s="50"/>
-      <c r="GF17" s="50"/>
-      <c r="GG17" s="50"/>
-      <c r="GH17" s="50"/>
-      <c r="GI17" s="50"/>
-      <c r="GJ17" s="50"/>
-      <c r="GK17" s="50"/>
-      <c r="GL17" s="50"/>
-      <c r="GM17" s="50"/>
-      <c r="GN17" s="50"/>
-      <c r="GO17" s="50"/>
-      <c r="GP17" s="50"/>
-      <c r="GQ17" s="50"/>
-      <c r="GR17" s="50"/>
-      <c r="GS17" s="50"/>
-      <c r="GT17" s="50"/>
-      <c r="GU17" s="50"/>
-      <c r="GV17" s="50"/>
-      <c r="GW17" s="50"/>
-      <c r="GX17" s="50"/>
-      <c r="GY17" s="50"/>
-      <c r="GZ17" s="50"/>
-      <c r="HA17" s="50"/>
-      <c r="HB17" s="50"/>
-      <c r="HC17" s="50"/>
-      <c r="HD17" s="50"/>
-      <c r="HE17" s="50"/>
-      <c r="HF17" s="50"/>
-      <c r="HG17" s="50"/>
-      <c r="HH17" s="50"/>
-      <c r="HI17" s="50"/>
-      <c r="HJ17" s="50"/>
-      <c r="HK17" s="50"/>
-      <c r="HL17" s="50"/>
-      <c r="HM17" s="50"/>
-      <c r="HN17" s="50"/>
-      <c r="HO17" s="50"/>
-      <c r="HP17" s="50"/>
-      <c r="HQ17" s="50"/>
-      <c r="HR17" s="50"/>
-      <c r="HS17" s="50"/>
-      <c r="HT17" s="50"/>
-      <c r="HU17" s="50"/>
-      <c r="HV17" s="50"/>
-      <c r="HW17" s="50"/>
-      <c r="HX17" s="50"/>
-      <c r="HY17" s="50"/>
-      <c r="HZ17" s="50"/>
-      <c r="IA17" s="50"/>
-      <c r="IB17" s="50"/>
-      <c r="IC17" s="50"/>
-      <c r="ID17" s="50"/>
-      <c r="IE17" s="50"/>
-      <c r="IF17" s="50"/>
-      <c r="IG17" s="50"/>
-      <c r="IH17" s="50"/>
-      <c r="II17" s="50"/>
-      <c r="IJ17" s="50"/>
-      <c r="IK17" s="50"/>
-      <c r="IL17" s="50"/>
-      <c r="IM17" s="50"/>
-      <c r="IN17" s="50"/>
-      <c r="IO17" s="50"/>
-      <c r="IP17" s="50"/>
-      <c r="IQ17" s="50"/>
-      <c r="IR17" s="50"/>
-      <c r="IS17" s="50"/>
-      <c r="IT17" s="50"/>
-      <c r="IU17" s="50"/>
-      <c r="IV17" s="50"/>
+      <c r="F17" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="47"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="47"/>
+      <c r="BM17" s="47"/>
+      <c r="BN17" s="47"/>
+      <c r="BO17" s="47"/>
+      <c r="BP17" s="47"/>
+      <c r="BQ17" s="47"/>
+      <c r="BR17" s="47"/>
+      <c r="BS17" s="47"/>
+      <c r="BT17" s="47"/>
+      <c r="BU17" s="47"/>
+      <c r="BV17" s="47"/>
+      <c r="BW17" s="47"/>
+      <c r="BX17" s="47"/>
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="47"/>
+      <c r="CA17" s="47"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
+      <c r="CL17" s="47"/>
+      <c r="CM17" s="47"/>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
+      <c r="DA17" s="47"/>
+      <c r="DB17" s="47"/>
+      <c r="DC17" s="47"/>
+      <c r="DD17" s="47"/>
+      <c r="DE17" s="47"/>
+      <c r="DF17" s="47"/>
+      <c r="DG17" s="47"/>
+      <c r="DH17" s="47"/>
+      <c r="DI17" s="47"/>
+      <c r="DJ17" s="47"/>
+      <c r="DK17" s="47"/>
+      <c r="DL17" s="47"/>
+      <c r="DM17" s="47"/>
+      <c r="DN17" s="47"/>
+      <c r="DO17" s="47"/>
+      <c r="DP17" s="47"/>
+      <c r="DQ17" s="47"/>
+      <c r="DR17" s="47"/>
+      <c r="DS17" s="47"/>
+      <c r="DT17" s="47"/>
+      <c r="DU17" s="47"/>
+      <c r="DV17" s="47"/>
+      <c r="DW17" s="47"/>
+      <c r="DX17" s="47"/>
+      <c r="DY17" s="47"/>
+      <c r="DZ17" s="47"/>
+      <c r="EA17" s="47"/>
+      <c r="EB17" s="47"/>
+      <c r="EC17" s="47"/>
+      <c r="ED17" s="47"/>
+      <c r="EE17" s="47"/>
+      <c r="EF17" s="47"/>
+      <c r="EG17" s="47"/>
+      <c r="EH17" s="47"/>
+      <c r="EI17" s="47"/>
+      <c r="EJ17" s="47"/>
+      <c r="EK17" s="47"/>
+      <c r="EL17" s="47"/>
+      <c r="EM17" s="47"/>
+      <c r="EN17" s="47"/>
+      <c r="EO17" s="47"/>
+      <c r="EP17" s="47"/>
+      <c r="EQ17" s="47"/>
+      <c r="ER17" s="47"/>
+      <c r="ES17" s="47"/>
+      <c r="ET17" s="47"/>
+      <c r="EU17" s="47"/>
+      <c r="EV17" s="47"/>
+      <c r="EW17" s="47"/>
+      <c r="EX17" s="47"/>
+      <c r="EY17" s="47"/>
+      <c r="EZ17" s="47"/>
+      <c r="FA17" s="47"/>
+      <c r="FB17" s="47"/>
+      <c r="FC17" s="47"/>
+      <c r="FD17" s="47"/>
+      <c r="FE17" s="47"/>
+      <c r="FF17" s="47"/>
+      <c r="FG17" s="47"/>
+      <c r="FH17" s="47"/>
+      <c r="FI17" s="47"/>
+      <c r="FJ17" s="47"/>
+      <c r="FK17" s="47"/>
+      <c r="FL17" s="47"/>
+      <c r="FM17" s="47"/>
+      <c r="FN17" s="47"/>
+      <c r="FO17" s="47"/>
+      <c r="FP17" s="47"/>
+      <c r="FQ17" s="47"/>
+      <c r="FR17" s="47"/>
+      <c r="FS17" s="47"/>
+      <c r="FT17" s="47"/>
+      <c r="FU17" s="47"/>
+      <c r="FV17" s="47"/>
+      <c r="FW17" s="47"/>
+      <c r="FX17" s="47"/>
+      <c r="FY17" s="47"/>
+      <c r="FZ17" s="47"/>
+      <c r="GA17" s="47"/>
+      <c r="GB17" s="47"/>
+      <c r="GC17" s="47"/>
+      <c r="GD17" s="47"/>
+      <c r="GE17" s="47"/>
+      <c r="GF17" s="47"/>
+      <c r="GG17" s="47"/>
+      <c r="GH17" s="47"/>
+      <c r="GI17" s="47"/>
+      <c r="GJ17" s="47"/>
+      <c r="GK17" s="47"/>
+      <c r="GL17" s="47"/>
+      <c r="GM17" s="47"/>
+      <c r="GN17" s="47"/>
+      <c r="GO17" s="47"/>
+      <c r="GP17" s="47"/>
+      <c r="GQ17" s="47"/>
+      <c r="GR17" s="47"/>
+      <c r="GS17" s="47"/>
+      <c r="GT17" s="47"/>
+      <c r="GU17" s="47"/>
+      <c r="GV17" s="47"/>
+      <c r="GW17" s="47"/>
+      <c r="GX17" s="47"/>
+      <c r="GY17" s="47"/>
+      <c r="GZ17" s="47"/>
+      <c r="HA17" s="47"/>
+      <c r="HB17" s="47"/>
+      <c r="HC17" s="47"/>
+      <c r="HD17" s="47"/>
+      <c r="HE17" s="47"/>
+      <c r="HF17" s="47"/>
+      <c r="HG17" s="47"/>
+      <c r="HH17" s="47"/>
+      <c r="HI17" s="47"/>
+      <c r="HJ17" s="47"/>
+      <c r="HK17" s="47"/>
+      <c r="HL17" s="47"/>
+      <c r="HM17" s="47"/>
+      <c r="HN17" s="47"/>
+      <c r="HO17" s="47"/>
+      <c r="HP17" s="47"/>
+      <c r="HQ17" s="47"/>
+      <c r="HR17" s="47"/>
+      <c r="HS17" s="47"/>
+      <c r="HT17" s="47"/>
+      <c r="HU17" s="47"/>
+      <c r="HV17" s="47"/>
+      <c r="HW17" s="47"/>
+      <c r="HX17" s="47"/>
+      <c r="HY17" s="47"/>
+      <c r="HZ17" s="47"/>
+      <c r="IA17" s="47"/>
+      <c r="IB17" s="47"/>
+      <c r="IC17" s="47"/>
+      <c r="ID17" s="47"/>
+      <c r="IE17" s="47"/>
+      <c r="IF17" s="47"/>
+      <c r="IG17" s="47"/>
+      <c r="IH17" s="47"/>
+      <c r="II17" s="47"/>
+      <c r="IJ17" s="47"/>
+      <c r="IK17" s="47"/>
+      <c r="IL17" s="47"/>
+      <c r="IM17" s="47"/>
+      <c r="IN17" s="47"/>
+      <c r="IO17" s="47"/>
+      <c r="IP17" s="47"/>
+      <c r="IQ17" s="47"/>
+      <c r="IR17" s="47"/>
+      <c r="IS17" s="47"/>
+      <c r="IT17" s="47"/>
+      <c r="IU17" s="47"/>
+      <c r="IV17" s="47"/>
     </row>
     <row r="18" spans="1:256" ht="51">
-      <c r="A18" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D18" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>200</v>
+        <v>166</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>197</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>42</v>
@@ -6134,251 +6426,345 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
-      <c r="BQ18" s="50"/>
-      <c r="BR18" s="50"/>
-      <c r="BS18" s="50"/>
-      <c r="BT18" s="50"/>
-      <c r="BU18" s="50"/>
-      <c r="BV18" s="50"/>
-      <c r="BW18" s="50"/>
-      <c r="BX18" s="50"/>
-      <c r="BY18" s="50"/>
-      <c r="BZ18" s="50"/>
-      <c r="CA18" s="50"/>
-      <c r="CB18" s="50"/>
-      <c r="CC18" s="50"/>
-      <c r="CD18" s="50"/>
-      <c r="CE18" s="50"/>
-      <c r="CF18" s="50"/>
-      <c r="CG18" s="50"/>
-      <c r="CH18" s="50"/>
-      <c r="CI18" s="50"/>
-      <c r="CJ18" s="50"/>
-      <c r="CK18" s="50"/>
-      <c r="CL18" s="50"/>
-      <c r="CM18" s="50"/>
-      <c r="CN18" s="50"/>
-      <c r="CO18" s="50"/>
-      <c r="CP18" s="50"/>
-      <c r="CQ18" s="50"/>
-      <c r="CR18" s="50"/>
-      <c r="CS18" s="50"/>
-      <c r="CT18" s="50"/>
-      <c r="CU18" s="50"/>
-      <c r="CV18" s="50"/>
-      <c r="CW18" s="50"/>
-      <c r="CX18" s="50"/>
-      <c r="CY18" s="50"/>
-      <c r="CZ18" s="50"/>
-      <c r="DA18" s="50"/>
-      <c r="DB18" s="50"/>
-      <c r="DC18" s="50"/>
-      <c r="DD18" s="50"/>
-      <c r="DE18" s="50"/>
-      <c r="DF18" s="50"/>
-      <c r="DG18" s="50"/>
-      <c r="DH18" s="50"/>
-      <c r="DI18" s="50"/>
-      <c r="DJ18" s="50"/>
-      <c r="DK18" s="50"/>
-      <c r="DL18" s="50"/>
-      <c r="DM18" s="50"/>
-      <c r="DN18" s="50"/>
-      <c r="DO18" s="50"/>
-      <c r="DP18" s="50"/>
-      <c r="DQ18" s="50"/>
-      <c r="DR18" s="50"/>
-      <c r="DS18" s="50"/>
-      <c r="DT18" s="50"/>
-      <c r="DU18" s="50"/>
-      <c r="DV18" s="50"/>
-      <c r="DW18" s="50"/>
-      <c r="DX18" s="50"/>
-      <c r="DY18" s="50"/>
-      <c r="DZ18" s="50"/>
-      <c r="EA18" s="50"/>
-      <c r="EB18" s="50"/>
-      <c r="EC18" s="50"/>
-      <c r="ED18" s="50"/>
-      <c r="EE18" s="50"/>
-      <c r="EF18" s="50"/>
-      <c r="EG18" s="50"/>
-      <c r="EH18" s="50"/>
-      <c r="EI18" s="50"/>
-      <c r="EJ18" s="50"/>
-      <c r="EK18" s="50"/>
-      <c r="EL18" s="50"/>
-      <c r="EM18" s="50"/>
-      <c r="EN18" s="50"/>
-      <c r="EO18" s="50"/>
-      <c r="EP18" s="50"/>
-      <c r="EQ18" s="50"/>
-      <c r="ER18" s="50"/>
-      <c r="ES18" s="50"/>
-      <c r="ET18" s="50"/>
-      <c r="EU18" s="50"/>
-      <c r="EV18" s="50"/>
-      <c r="EW18" s="50"/>
-      <c r="EX18" s="50"/>
-      <c r="EY18" s="50"/>
-      <c r="EZ18" s="50"/>
-      <c r="FA18" s="50"/>
-      <c r="FB18" s="50"/>
-      <c r="FC18" s="50"/>
-      <c r="FD18" s="50"/>
-      <c r="FE18" s="50"/>
-      <c r="FF18" s="50"/>
-      <c r="FG18" s="50"/>
-      <c r="FH18" s="50"/>
-      <c r="FI18" s="50"/>
-      <c r="FJ18" s="50"/>
-      <c r="FK18" s="50"/>
-      <c r="FL18" s="50"/>
-      <c r="FM18" s="50"/>
-      <c r="FN18" s="50"/>
-      <c r="FO18" s="50"/>
-      <c r="FP18" s="50"/>
-      <c r="FQ18" s="50"/>
-      <c r="FR18" s="50"/>
-      <c r="FS18" s="50"/>
-      <c r="FT18" s="50"/>
-      <c r="FU18" s="50"/>
-      <c r="FV18" s="50"/>
-      <c r="FW18" s="50"/>
-      <c r="FX18" s="50"/>
-      <c r="FY18" s="50"/>
-      <c r="FZ18" s="50"/>
-      <c r="GA18" s="50"/>
-      <c r="GB18" s="50"/>
-      <c r="GC18" s="50"/>
-      <c r="GD18" s="50"/>
-      <c r="GE18" s="50"/>
-      <c r="GF18" s="50"/>
-      <c r="GG18" s="50"/>
-      <c r="GH18" s="50"/>
-      <c r="GI18" s="50"/>
-      <c r="GJ18" s="50"/>
-      <c r="GK18" s="50"/>
-      <c r="GL18" s="50"/>
-      <c r="GM18" s="50"/>
-      <c r="GN18" s="50"/>
-      <c r="GO18" s="50"/>
-      <c r="GP18" s="50"/>
-      <c r="GQ18" s="50"/>
-      <c r="GR18" s="50"/>
-      <c r="GS18" s="50"/>
-      <c r="GT18" s="50"/>
-      <c r="GU18" s="50"/>
-      <c r="GV18" s="50"/>
-      <c r="GW18" s="50"/>
-      <c r="GX18" s="50"/>
-      <c r="GY18" s="50"/>
-      <c r="GZ18" s="50"/>
-      <c r="HA18" s="50"/>
-      <c r="HB18" s="50"/>
-      <c r="HC18" s="50"/>
-      <c r="HD18" s="50"/>
-      <c r="HE18" s="50"/>
-      <c r="HF18" s="50"/>
-      <c r="HG18" s="50"/>
-      <c r="HH18" s="50"/>
-      <c r="HI18" s="50"/>
-      <c r="HJ18" s="50"/>
-      <c r="HK18" s="50"/>
-      <c r="HL18" s="50"/>
-      <c r="HM18" s="50"/>
-      <c r="HN18" s="50"/>
-      <c r="HO18" s="50"/>
-      <c r="HP18" s="50"/>
-      <c r="HQ18" s="50"/>
-      <c r="HR18" s="50"/>
-      <c r="HS18" s="50"/>
-      <c r="HT18" s="50"/>
-      <c r="HU18" s="50"/>
-      <c r="HV18" s="50"/>
-      <c r="HW18" s="50"/>
-      <c r="HX18" s="50"/>
-      <c r="HY18" s="50"/>
-      <c r="HZ18" s="50"/>
-      <c r="IA18" s="50"/>
-      <c r="IB18" s="50"/>
-      <c r="IC18" s="50"/>
-      <c r="ID18" s="50"/>
-      <c r="IE18" s="50"/>
-      <c r="IF18" s="50"/>
-      <c r="IG18" s="50"/>
-      <c r="IH18" s="50"/>
-      <c r="II18" s="50"/>
-      <c r="IJ18" s="50"/>
-      <c r="IK18" s="50"/>
-      <c r="IL18" s="50"/>
-      <c r="IM18" s="50"/>
-      <c r="IN18" s="50"/>
-      <c r="IO18" s="50"/>
-      <c r="IP18" s="50"/>
-      <c r="IQ18" s="50"/>
-      <c r="IR18" s="50"/>
-      <c r="IS18" s="50"/>
-      <c r="IT18" s="50"/>
-      <c r="IU18" s="50"/>
-      <c r="IV18" s="50"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="47"/>
+      <c r="BB18" s="47"/>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="47"/>
+      <c r="BE18" s="47"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="47"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="47"/>
+      <c r="BJ18" s="47"/>
+      <c r="BK18" s="47"/>
+      <c r="BL18" s="47"/>
+      <c r="BM18" s="47"/>
+      <c r="BN18" s="47"/>
+      <c r="BO18" s="47"/>
+      <c r="BP18" s="47"/>
+      <c r="BQ18" s="47"/>
+      <c r="BR18" s="47"/>
+      <c r="BS18" s="47"/>
+      <c r="BT18" s="47"/>
+      <c r="BU18" s="47"/>
+      <c r="BV18" s="47"/>
+      <c r="BW18" s="47"/>
+      <c r="BX18" s="47"/>
+      <c r="BY18" s="47"/>
+      <c r="BZ18" s="47"/>
+      <c r="CA18" s="47"/>
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="47"/>
+      <c r="CD18" s="47"/>
+      <c r="CE18" s="47"/>
+      <c r="CF18" s="47"/>
+      <c r="CG18" s="47"/>
+      <c r="CH18" s="47"/>
+      <c r="CI18" s="47"/>
+      <c r="CJ18" s="47"/>
+      <c r="CK18" s="47"/>
+      <c r="CL18" s="47"/>
+      <c r="CM18" s="47"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="47"/>
+      <c r="CU18" s="47"/>
+      <c r="CV18" s="47"/>
+      <c r="CW18" s="47"/>
+      <c r="CX18" s="47"/>
+      <c r="CY18" s="47"/>
+      <c r="CZ18" s="47"/>
+      <c r="DA18" s="47"/>
+      <c r="DB18" s="47"/>
+      <c r="DC18" s="47"/>
+      <c r="DD18" s="47"/>
+      <c r="DE18" s="47"/>
+      <c r="DF18" s="47"/>
+      <c r="DG18" s="47"/>
+      <c r="DH18" s="47"/>
+      <c r="DI18" s="47"/>
+      <c r="DJ18" s="47"/>
+      <c r="DK18" s="47"/>
+      <c r="DL18" s="47"/>
+      <c r="DM18" s="47"/>
+      <c r="DN18" s="47"/>
+      <c r="DO18" s="47"/>
+      <c r="DP18" s="47"/>
+      <c r="DQ18" s="47"/>
+      <c r="DR18" s="47"/>
+      <c r="DS18" s="47"/>
+      <c r="DT18" s="47"/>
+      <c r="DU18" s="47"/>
+      <c r="DV18" s="47"/>
+      <c r="DW18" s="47"/>
+      <c r="DX18" s="47"/>
+      <c r="DY18" s="47"/>
+      <c r="DZ18" s="47"/>
+      <c r="EA18" s="47"/>
+      <c r="EB18" s="47"/>
+      <c r="EC18" s="47"/>
+      <c r="ED18" s="47"/>
+      <c r="EE18" s="47"/>
+      <c r="EF18" s="47"/>
+      <c r="EG18" s="47"/>
+      <c r="EH18" s="47"/>
+      <c r="EI18" s="47"/>
+      <c r="EJ18" s="47"/>
+      <c r="EK18" s="47"/>
+      <c r="EL18" s="47"/>
+      <c r="EM18" s="47"/>
+      <c r="EN18" s="47"/>
+      <c r="EO18" s="47"/>
+      <c r="EP18" s="47"/>
+      <c r="EQ18" s="47"/>
+      <c r="ER18" s="47"/>
+      <c r="ES18" s="47"/>
+      <c r="ET18" s="47"/>
+      <c r="EU18" s="47"/>
+      <c r="EV18" s="47"/>
+      <c r="EW18" s="47"/>
+      <c r="EX18" s="47"/>
+      <c r="EY18" s="47"/>
+      <c r="EZ18" s="47"/>
+      <c r="FA18" s="47"/>
+      <c r="FB18" s="47"/>
+      <c r="FC18" s="47"/>
+      <c r="FD18" s="47"/>
+      <c r="FE18" s="47"/>
+      <c r="FF18" s="47"/>
+      <c r="FG18" s="47"/>
+      <c r="FH18" s="47"/>
+      <c r="FI18" s="47"/>
+      <c r="FJ18" s="47"/>
+      <c r="FK18" s="47"/>
+      <c r="FL18" s="47"/>
+      <c r="FM18" s="47"/>
+      <c r="FN18" s="47"/>
+      <c r="FO18" s="47"/>
+      <c r="FP18" s="47"/>
+      <c r="FQ18" s="47"/>
+      <c r="FR18" s="47"/>
+      <c r="FS18" s="47"/>
+      <c r="FT18" s="47"/>
+      <c r="FU18" s="47"/>
+      <c r="FV18" s="47"/>
+      <c r="FW18" s="47"/>
+      <c r="FX18" s="47"/>
+      <c r="FY18" s="47"/>
+      <c r="FZ18" s="47"/>
+      <c r="GA18" s="47"/>
+      <c r="GB18" s="47"/>
+      <c r="GC18" s="47"/>
+      <c r="GD18" s="47"/>
+      <c r="GE18" s="47"/>
+      <c r="GF18" s="47"/>
+      <c r="GG18" s="47"/>
+      <c r="GH18" s="47"/>
+      <c r="GI18" s="47"/>
+      <c r="GJ18" s="47"/>
+      <c r="GK18" s="47"/>
+      <c r="GL18" s="47"/>
+      <c r="GM18" s="47"/>
+      <c r="GN18" s="47"/>
+      <c r="GO18" s="47"/>
+      <c r="GP18" s="47"/>
+      <c r="GQ18" s="47"/>
+      <c r="GR18" s="47"/>
+      <c r="GS18" s="47"/>
+      <c r="GT18" s="47"/>
+      <c r="GU18" s="47"/>
+      <c r="GV18" s="47"/>
+      <c r="GW18" s="47"/>
+      <c r="GX18" s="47"/>
+      <c r="GY18" s="47"/>
+      <c r="GZ18" s="47"/>
+      <c r="HA18" s="47"/>
+      <c r="HB18" s="47"/>
+      <c r="HC18" s="47"/>
+      <c r="HD18" s="47"/>
+      <c r="HE18" s="47"/>
+      <c r="HF18" s="47"/>
+      <c r="HG18" s="47"/>
+      <c r="HH18" s="47"/>
+      <c r="HI18" s="47"/>
+      <c r="HJ18" s="47"/>
+      <c r="HK18" s="47"/>
+      <c r="HL18" s="47"/>
+      <c r="HM18" s="47"/>
+      <c r="HN18" s="47"/>
+      <c r="HO18" s="47"/>
+      <c r="HP18" s="47"/>
+      <c r="HQ18" s="47"/>
+      <c r="HR18" s="47"/>
+      <c r="HS18" s="47"/>
+      <c r="HT18" s="47"/>
+      <c r="HU18" s="47"/>
+      <c r="HV18" s="47"/>
+      <c r="HW18" s="47"/>
+      <c r="HX18" s="47"/>
+      <c r="HY18" s="47"/>
+      <c r="HZ18" s="47"/>
+      <c r="IA18" s="47"/>
+      <c r="IB18" s="47"/>
+      <c r="IC18" s="47"/>
+      <c r="ID18" s="47"/>
+      <c r="IE18" s="47"/>
+      <c r="IF18" s="47"/>
+      <c r="IG18" s="47"/>
+      <c r="IH18" s="47"/>
+      <c r="II18" s="47"/>
+      <c r="IJ18" s="47"/>
+      <c r="IK18" s="47"/>
+      <c r="IL18" s="47"/>
+      <c r="IM18" s="47"/>
+      <c r="IN18" s="47"/>
+      <c r="IO18" s="47"/>
+      <c r="IP18" s="47"/>
+      <c r="IQ18" s="47"/>
+      <c r="IR18" s="47"/>
+      <c r="IS18" s="47"/>
+      <c r="IT18" s="47"/>
+      <c r="IU18" s="47"/>
+      <c r="IV18" s="47"/>
+    </row>
+    <row r="19" spans="1:256" ht="12.95" customHeight="1">
+      <c r="A19" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:256" ht="12.95" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:256" ht="12.95" customHeight="1">
+      <c r="A21" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+    </row>
+    <row r="22" spans="1:256" ht="12.95" customHeight="1">
+      <c r="A22" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6393,39 +6779,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="43" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="43" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="8" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="40" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
@@ -6459,7 +6845,7 @@
       <c r="E3" s="6">
         <v>60</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="41">
         <f>(D3-D2)/E3*60</f>
         <v>53</v>
       </c>
@@ -6483,7 +6869,7 @@
         <f>SUM(Sprint2!I2:I10)</f>
         <v>365</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="41">
         <f>(D4-D3)/E4*60</f>
         <v>26.63013698630137</v>
       </c>
@@ -6507,7 +6893,7 @@
         <f>SUM(Sprint3!I3:I11)</f>
         <v>300</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="41">
         <f>(D5-D4)/E5*60</f>
         <v>43.6</v>
       </c>
@@ -6516,22 +6902,24 @@
       <c r="A6" s="14">
         <v>40653</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
       <c r="C6" s="6">
         <f>B5-B6</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(Sprint4!H2:H10)</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E6" s="5">
         <f>SUM(Sprint4!I2:I10)</f>
-        <v>40</v>
-      </c>
-      <c r="F6" s="44">
+        <v>240</v>
+      </c>
+      <c r="F6" s="41">
         <f>(D6-D5)/E6*60</f>
-        <v>-604.5</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
@@ -6541,7 +6929,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6">
         <f>B6-B7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -6550,7 +6938,7 @@
         <f>SUM(Sprint5!I2:I10)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="44" t="e">
+      <c r="F7" s="41" t="e">
         <f>(D7-D6)/E7*60</f>
         <v>#DIV/0!</v>
       </c>
@@ -6599,17 +6987,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="8.09765625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="5.09765625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="5" style="45" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="8" style="45" customWidth="1"/>
-    <col min="11" max="256" width="8.09765625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="5.09765625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="5" style="42" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="8" style="42" customWidth="1"/>
+    <col min="11" max="256" width="8.09765625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -6652,10 +7040,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
@@ -6684,13 +7072,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
@@ -6711,16 +7099,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="5">
         <v>100</v>
@@ -6741,10 +7129,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -6773,10 +7161,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6800,8 +7188,8 @@
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6812,8 +7200,8 @@
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6824,8 +7212,8 @@
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -6836,8 +7224,8 @@
     </row>
     <row r="10" spans="1:10" ht="26.1" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -6848,8 +7236,8 @@
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -6860,8 +7248,8 @@
     </row>
     <row r="12" spans="1:10" ht="26.1" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -6872,8 +7260,8 @@
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -6885,9 +7273,9 @@
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="42"/>
+        <v>181</v>
+      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -6898,8 +7286,8 @@
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -6911,9 +7299,9 @@
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="42"/>
+        <v>182</v>
+      </c>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -6925,9 +7313,9 @@
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="42"/>
+        <v>183</v>
+      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -6939,9 +7327,9 @@
     <row r="18" spans="1:10" ht="26.1" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="42"/>
+        <v>184</v>
+      </c>
+      <c r="C18" s="39"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -6952,8 +7340,8 @@
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -6965,9 +7353,9 @@
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="42"/>
+        <v>185</v>
+      </c>
+      <c r="C20" s="39"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -6979,9 +7367,9 @@
     <row r="21" spans="1:10" ht="26.1" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="42"/>
+        <v>186</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -7007,9 +7395,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="47" customWidth="1"/>
-    <col min="3" max="256" width="8.09765625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="44" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.1" customHeight="1">
@@ -7052,7 +7440,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>36</v>
@@ -7084,7 +7472,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>36</v>
@@ -7114,7 +7502,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -7144,7 +7532,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -7171,10 +7559,10 @@
         <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
@@ -7201,10 +7589,10 @@
         <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -7275,15 +7663,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="256" width="8.09765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="256" width="8.09765625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.1" customHeight="1">
@@ -7323,10 +7711,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -7352,13 +7740,13 @@
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -7383,31 +7771,31 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="63">
         <v>30</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="63">
         <v>100</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="63">
         <v>43</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="63">
         <v>120</v>
       </c>
       <c r="J4" s="13">
@@ -7415,31 +7803,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="63">
         <v>60</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="63">
         <v>20</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="63">
         <v>40</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="63">
         <v>10</v>
       </c>
       <c r="J5" s="13">
@@ -7447,20 +7835,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="65" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="5">
         <v>25</v>
@@ -7477,20 +7865,20 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>80</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F7" s="5">
         <v>25</v>
@@ -7533,9 +7921,9 @@
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="42"/>
+        <v>181</v>
+      </c>
+      <c r="C10" s="39"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -7545,10 +7933,10 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B11" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="B11" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -7559,9 +7947,9 @@
     </row>
     <row r="12" spans="1:10" ht="12.95" customHeight="1">
       <c r="B12" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="42"/>
+        <v>182</v>
+      </c>
+      <c r="C12" s="39"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7571,10 +7959,10 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B13" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="42"/>
+      <c r="B13" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -7584,10 +7972,10 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B14" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="42"/>
+      <c r="B14" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -7597,8 +7985,8 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.95" customHeight="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7609,9 +7997,9 @@
     </row>
     <row r="16" spans="1:10" ht="12.95" customHeight="1">
       <c r="B16" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="42"/>
+        <v>185</v>
+      </c>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -7620,11 +8008,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" ht="12.95" customHeight="1">
-      <c r="B17" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="42"/>
+    <row r="17" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B17" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -7646,18 +8034,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="256" width="8.09765625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.09765625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="24.8984375" style="46" customWidth="1"/>
+    <col min="12" max="12" width="24.296875" style="46" customWidth="1"/>
+    <col min="13" max="256" width="8.09765625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.1" customHeight="1">
+    <row r="1" spans="1:256" ht="29.1" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -7689,21 +8080,24 @@
         <v>32</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5">
@@ -7714,18 +8108,20 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="13">
+        <v>40288</v>
+      </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="25.5">
       <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -7737,14 +8133,23 @@
       <c r="G3" s="5">
         <v>60</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="H3" s="5">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20</v>
+      </c>
+      <c r="J3" s="13">
+        <v>40288</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>67</v>
       </c>
@@ -7752,32 +8157,40 @@
         <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="5">
         <v>100</v>
       </c>
       <c r="G4" s="5">
         <v>120</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="72">
+        <v>50</v>
+      </c>
+      <c r="I4" s="72">
+        <v>60</v>
+      </c>
+      <c r="J4" s="13">
+        <v>40288</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>36</v>
@@ -7791,10 +8204,12 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="13">
+        <v>40288</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -7802,24 +8217,32 @@
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="5">
         <v>50</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="73">
+        <v>40</v>
+      </c>
+      <c r="I6" s="73">
+        <v>60</v>
+      </c>
+      <c r="J6" s="13">
+        <v>40288</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -7827,13 +8250,13 @@
         <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F7" s="5">
         <v>25</v>
@@ -7847,25 +8270,47 @@
       <c r="I7" s="5">
         <v>40</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="13">
+        <v>40288</v>
+      </c>
       <c r="K7" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <v>60</v>
+      </c>
+      <c r="H8" s="5">
+        <v>130</v>
+      </c>
+      <c r="I8" s="5">
+        <v>60</v>
+      </c>
+      <c r="J8" s="13">
+        <v>40653</v>
+      </c>
+      <c r="IV8"/>
+    </row>
+    <row r="9" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7878,7 +8323,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7891,11 +8336,11 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="12.95" customHeight="1">
+    <row r="11" spans="1:256" ht="12.95" customHeight="1">
       <c r="B11" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="42"/>
+        <v>181</v>
+      </c>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -7905,9 +8350,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="12.95" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="42"/>
+    <row r="12" spans="1:256" ht="12.95" customHeight="1">
+      <c r="B12" s="43"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7916,11 +8361,11 @@
       <c r="I12" s="5"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="12.95" customHeight="1">
+    <row r="13" spans="1:256" ht="12.95" customHeight="1">
       <c r="B13" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="42"/>
+        <v>182</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -7929,9 +8374,9 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="12.95" customHeight="1">
+    <row r="14" spans="1:256" ht="12.95" customHeight="1">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -7940,9 +8385,9 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="12.95" customHeight="1">
+    <row r="15" spans="1:256" ht="12.95" customHeight="1">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7951,9 +8396,9 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="12.95" customHeight="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+    <row r="16" spans="1:256" ht="12.95" customHeight="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -7964,9 +8409,9 @@
     </row>
     <row r="17" spans="2:10" ht="12.95" customHeight="1">
       <c r="B17" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="42"/>
+        <v>185</v>
+      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -7977,7 +8422,7 @@
     </row>
     <row r="18" spans="2:10" ht="12.95" customHeight="1">
       <c r="B18" s="27"/>
-      <c r="C18" s="42"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
